--- a/outputs/house_all_committee_votes.xlsx
+++ b/outputs/house_all_committee_votes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -960,17 +960,14 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
       <c r="Y2">
         <v>1</v>
       </c>
@@ -978,25 +975,25 @@
         <v>1</v>
       </c>
       <c r="AJ2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>1</v>
       </c>
       <c r="AX2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD2">
         <v>1</v>
       </c>
       <c r="BI2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM2">
         <v>1</v>
@@ -1014,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="CO2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.25">
@@ -1126,10 +1123,10 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1138,14 +1135,14 @@
         <v>4</v>
       </c>
       <c r="T4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U4">
+        <v>9</v>
+      </c>
+      <c r="X4">
         <v>10</v>
       </c>
-      <c r="X4">
-        <v>11</v>
-      </c>
       <c r="AA4">
         <v>1</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="AK4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL4">
         <v>1</v>
@@ -1171,13 +1168,13 @@
         <v>2</v>
       </c>
       <c r="AP4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS4">
         <v>5</v>
       </c>
       <c r="AW4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA4">
         <v>1</v>
@@ -1189,19 +1186,19 @@
         <v>4</v>
       </c>
       <c r="BR4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BS4">
         <v>1</v>
       </c>
       <c r="BT4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CL4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CM4">
         <v>1</v>
@@ -1215,10 +1212,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -1229,9 +1226,6 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
       <c r="Y5">
         <v>5</v>
       </c>
@@ -1242,22 +1236,22 @@
         <v>5</v>
       </c>
       <c r="AJ5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM5">
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>5</v>
       </c>
       <c r="AX5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY5">
         <v>4</v>
@@ -1269,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="BI5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ5">
         <v>5</v>
@@ -1305,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="CO5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
@@ -1316,10 +1310,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1331,13 +1325,13 @@
         <v>4</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB6">
         <v>2</v>
@@ -1346,13 +1340,13 @@
         <v>2</v>
       </c>
       <c r="AK6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL6">
         <v>2</v>
       </c>
       <c r="AP6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT6">
         <v>2</v>
@@ -1361,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="AW6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX6">
         <v>2</v>
@@ -1379,13 +1373,13 @@
         <v>1</v>
       </c>
       <c r="BR6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BT6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BW6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BZ6">
         <v>1</v>
@@ -1397,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="CL6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CP6">
         <v>2</v>
@@ -1414,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -1426,82 +1420,82 @@
         <v>1</v>
       </c>
       <c r="U7">
+        <v>11</v>
+      </c>
+      <c r="W7">
+        <v>13</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>7</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AO7">
+        <v>9</v>
+      </c>
+      <c r="AR7">
+        <v>2</v>
+      </c>
+      <c r="AV7">
+        <v>8</v>
+      </c>
+      <c r="BA7">
+        <v>2</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>2</v>
+      </c>
+      <c r="BI7">
+        <v>11</v>
+      </c>
+      <c r="BL7">
+        <v>2</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
         <v>12</v>
       </c>
-      <c r="W7">
-        <v>14</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7">
+      <c r="BZ7">
+        <v>1</v>
+      </c>
+      <c r="CA7">
         <v>8</v>
       </c>
-      <c r="AD7">
-        <v>2</v>
-      </c>
-      <c r="AO7">
+      <c r="CB7">
+        <v>1</v>
+      </c>
+      <c r="CC7">
+        <v>2</v>
+      </c>
+      <c r="CD7">
+        <v>1</v>
+      </c>
+      <c r="CF7">
+        <v>6</v>
+      </c>
+      <c r="CG7">
+        <v>11</v>
+      </c>
+      <c r="CI7">
+        <v>2</v>
+      </c>
+      <c r="CK7">
+        <v>12</v>
+      </c>
+      <c r="CP7">
+        <v>1</v>
+      </c>
+      <c r="CQ7">
         <v>10</v>
-      </c>
-      <c r="AR7">
-        <v>2</v>
-      </c>
-      <c r="AV7">
-        <v>9</v>
-      </c>
-      <c r="BA7">
-        <v>2</v>
-      </c>
-      <c r="BB7">
-        <v>1</v>
-      </c>
-      <c r="BH7">
-        <v>2</v>
-      </c>
-      <c r="BI7">
-        <v>12</v>
-      </c>
-      <c r="BL7">
-        <v>2</v>
-      </c>
-      <c r="BR7">
-        <v>1</v>
-      </c>
-      <c r="BS7">
-        <v>13</v>
-      </c>
-      <c r="BZ7">
-        <v>1</v>
-      </c>
-      <c r="CA7">
-        <v>9</v>
-      </c>
-      <c r="CB7">
-        <v>1</v>
-      </c>
-      <c r="CC7">
-        <v>2</v>
-      </c>
-      <c r="CD7">
-        <v>1</v>
-      </c>
-      <c r="CF7">
-        <v>7</v>
-      </c>
-      <c r="CG7">
-        <v>12</v>
-      </c>
-      <c r="CI7">
-        <v>2</v>
-      </c>
-      <c r="CK7">
-        <v>13</v>
-      </c>
-      <c r="CP7">
-        <v>1</v>
-      </c>
-      <c r="CQ7">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
@@ -1868,16 +1862,16 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC12">
         <v>2</v>
@@ -1886,7 +1880,7 @@
         <v>7</v>
       </c>
       <c r="AH12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM12">
         <v>3</v>
@@ -1895,46 +1889,46 @@
         <v>7</v>
       </c>
       <c r="AU12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BN12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CF12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CL12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
@@ -1945,16 +1939,16 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC13">
         <v>2</v>
@@ -1963,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="AH13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM13">
         <v>3</v>
@@ -1972,46 +1966,46 @@
         <v>6</v>
       </c>
       <c r="AU13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BN13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CF13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CL13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
@@ -2173,16 +2167,16 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC16">
         <v>3</v>
@@ -2194,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="AH16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM16">
         <v>4</v>
@@ -2203,58 +2197,58 @@
         <v>3</v>
       </c>
       <c r="AU16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX16">
         <v>1</v>
       </c>
       <c r="AY16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM16">
         <v>1</v>
       </c>
       <c r="BN16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU16">
         <v>1</v>
       </c>
       <c r="BW16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CF16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG16">
         <v>1</v>
       </c>
       <c r="CJ16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CL16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CN16">
         <v>1</v>
@@ -2559,28 +2553,28 @@
         <v>1</v>
       </c>
       <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>11</v>
+      </c>
+      <c r="U20">
         <v>8</v>
       </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>12</v>
-      </c>
-      <c r="U20">
-        <v>9</v>
-      </c>
       <c r="X20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA20">
         <v>1</v>
@@ -2598,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="AK20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL20">
         <v>1</v>
@@ -2607,17 +2601,17 @@
         <v>2</v>
       </c>
       <c r="AP20">
+        <v>7</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AU20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
         <v>8</v>
       </c>
-      <c r="AS20">
-        <v>1</v>
-      </c>
-      <c r="AU20">
-        <v>2</v>
-      </c>
-      <c r="AW20">
-        <v>9</v>
-      </c>
       <c r="BA20">
         <v>1</v>
       </c>
@@ -2628,22 +2622,22 @@
         <v>2</v>
       </c>
       <c r="BR20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS20">
         <v>1</v>
       </c>
       <c r="BT20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BW20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CC20">
         <v>2</v>
       </c>
       <c r="CL20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CM20">
         <v>1</v>
@@ -2657,112 +2651,106 @@
         <v>20</v>
       </c>
       <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>8</v>
+      </c>
+      <c r="U21">
+        <v>22</v>
+      </c>
+      <c r="W21">
         <v>10</v>
       </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
-      <c r="G21">
-        <v>12</v>
-      </c>
-      <c r="S21">
-        <v>3</v>
-      </c>
-      <c r="T21">
+      <c r="X21">
+        <v>11</v>
+      </c>
+      <c r="AC21">
+        <v>6</v>
+      </c>
+      <c r="AD21">
+        <v>3</v>
+      </c>
+      <c r="AI21">
+        <v>3</v>
+      </c>
+      <c r="AK21">
+        <v>8</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>9</v>
       </c>
-      <c r="U21">
-        <v>24</v>
-      </c>
-      <c r="W21">
+      <c r="AP21">
+        <v>7</v>
+      </c>
+      <c r="AS21">
+        <v>3</v>
+      </c>
+      <c r="AV21">
+        <v>7</v>
+      </c>
+      <c r="AW21">
         <v>11</v>
       </c>
-      <c r="X21">
-        <v>12</v>
-      </c>
-      <c r="AC21">
-        <v>7</v>
-      </c>
-      <c r="AD21">
-        <v>3</v>
-      </c>
-      <c r="AI21">
-        <v>3</v>
-      </c>
-      <c r="AK21">
-        <v>9</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
-      <c r="AO21">
+      <c r="BD21">
+        <v>3</v>
+      </c>
+      <c r="BI21">
         <v>10</v>
       </c>
-      <c r="AP21">
+      <c r="BQ21">
+        <v>3</v>
+      </c>
+      <c r="BR21">
         <v>8</v>
       </c>
-      <c r="AS21">
-        <v>3</v>
-      </c>
-      <c r="AV21">
-        <v>8</v>
-      </c>
-      <c r="AW21">
-        <v>12</v>
-      </c>
-      <c r="BD21">
-        <v>3</v>
-      </c>
-      <c r="BI21">
+      <c r="BS21">
         <v>11</v>
       </c>
-      <c r="BQ21">
-        <v>3</v>
-      </c>
-      <c r="BR21">
-        <v>9</v>
-      </c>
-      <c r="BS21">
-        <v>12</v>
-      </c>
       <c r="BT21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BW21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CA21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CG21">
+        <v>10</v>
+      </c>
+      <c r="CK21">
         <v>11</v>
       </c>
-      <c r="CK21">
-        <v>12</v>
-      </c>
       <c r="CL21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CN21">
         <v>3</v>
       </c>
       <c r="CQ21">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
       <c r="H22">
         <v>2</v>
       </c>
@@ -2776,7 +2764,7 @@
         <v>2</v>
       </c>
       <c r="V22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z22">
         <v>2</v>
@@ -2788,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="AJ22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL22">
         <v>2</v>
@@ -2796,18 +2784,9 @@
       <c r="AN22">
         <v>2</v>
       </c>
-      <c r="AQ22">
-        <v>1</v>
-      </c>
       <c r="AR22">
         <v>2</v>
       </c>
-      <c r="AS22">
-        <v>1</v>
-      </c>
-      <c r="AX22">
-        <v>1</v>
-      </c>
       <c r="AZ22">
         <v>2</v>
       </c>
@@ -2817,9 +2796,6 @@
       <c r="BH22">
         <v>2</v>
       </c>
-      <c r="BI22">
-        <v>1</v>
-      </c>
       <c r="BL22">
         <v>2</v>
       </c>
@@ -2834,9 +2810,6 @@
       </c>
       <c r="CD22">
         <v>2</v>
-      </c>
-      <c r="CO22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:95" x14ac:dyDescent="0.25">
@@ -2847,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -2859,82 +2832,82 @@
         <v>2</v>
       </c>
       <c r="U23">
+        <v>10</v>
+      </c>
+      <c r="W23">
+        <v>15</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>7</v>
+      </c>
+      <c r="AD23">
+        <v>2</v>
+      </c>
+      <c r="AG23">
+        <v>2</v>
+      </c>
+      <c r="AO23">
+        <v>8</v>
+      </c>
+      <c r="AR23">
+        <v>2</v>
+      </c>
+      <c r="AT23">
+        <v>2</v>
+      </c>
+      <c r="AV23">
+        <v>7</v>
+      </c>
+      <c r="AW23">
+        <v>2</v>
+      </c>
+      <c r="BA23">
+        <v>2</v>
+      </c>
+      <c r="BG23">
+        <v>1</v>
+      </c>
+      <c r="BH23">
+        <v>2</v>
+      </c>
+      <c r="BI23">
+        <v>10</v>
+      </c>
+      <c r="BL23">
+        <v>2</v>
+      </c>
+      <c r="BS23">
         <v>11</v>
       </c>
-      <c r="W23">
-        <v>16</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AC23">
+      <c r="BZ23">
+        <v>2</v>
+      </c>
+      <c r="CA23">
         <v>8</v>
       </c>
-      <c r="AD23">
-        <v>2</v>
-      </c>
-      <c r="AG23">
-        <v>2</v>
-      </c>
-      <c r="AO23">
+      <c r="CC23">
+        <v>2</v>
+      </c>
+      <c r="CF23">
+        <v>6</v>
+      </c>
+      <c r="CG23">
+        <v>12</v>
+      </c>
+      <c r="CH23">
+        <v>1</v>
+      </c>
+      <c r="CI23">
+        <v>2</v>
+      </c>
+      <c r="CK23">
+        <v>12</v>
+      </c>
+      <c r="CQ23">
         <v>9</v>
-      </c>
-      <c r="AR23">
-        <v>2</v>
-      </c>
-      <c r="AT23">
-        <v>2</v>
-      </c>
-      <c r="AV23">
-        <v>8</v>
-      </c>
-      <c r="AW23">
-        <v>2</v>
-      </c>
-      <c r="BA23">
-        <v>2</v>
-      </c>
-      <c r="BG23">
-        <v>1</v>
-      </c>
-      <c r="BH23">
-        <v>2</v>
-      </c>
-      <c r="BI23">
-        <v>11</v>
-      </c>
-      <c r="BL23">
-        <v>2</v>
-      </c>
-      <c r="BS23">
-        <v>12</v>
-      </c>
-      <c r="BZ23">
-        <v>2</v>
-      </c>
-      <c r="CA23">
-        <v>9</v>
-      </c>
-      <c r="CC23">
-        <v>2</v>
-      </c>
-      <c r="CF23">
-        <v>7</v>
-      </c>
-      <c r="CG23">
-        <v>13</v>
-      </c>
-      <c r="CH23">
-        <v>1</v>
-      </c>
-      <c r="CI23">
-        <v>2</v>
-      </c>
-      <c r="CK23">
-        <v>13</v>
-      </c>
-      <c r="CQ23">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:95" x14ac:dyDescent="0.25">
@@ -2945,79 +2918,79 @@
         <v>2</v>
       </c>
       <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>10</v>
+      </c>
+      <c r="U24">
         <v>11</v>
       </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="R24">
-        <v>3</v>
-      </c>
-      <c r="S24">
-        <v>4</v>
-      </c>
-      <c r="T24">
-        <v>11</v>
-      </c>
-      <c r="U24">
+      <c r="X24">
+        <v>15</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AH24">
+        <v>3</v>
+      </c>
+      <c r="AI24">
+        <v>6</v>
+      </c>
+      <c r="AK24">
+        <v>8</v>
+      </c>
+      <c r="AN24">
+        <v>5</v>
+      </c>
+      <c r="AP24">
+        <v>7</v>
+      </c>
+      <c r="AS24">
+        <v>4</v>
+      </c>
+      <c r="AU24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
         <v>12</v>
       </c>
-      <c r="X24">
-        <v>16</v>
-      </c>
-      <c r="AD24">
-        <v>4</v>
-      </c>
-      <c r="AH24">
-        <v>3</v>
-      </c>
-      <c r="AI24">
-        <v>6</v>
-      </c>
-      <c r="AK24">
-        <v>9</v>
-      </c>
-      <c r="AN24">
-        <v>5</v>
-      </c>
-      <c r="AP24">
+      <c r="BD24">
+        <v>4</v>
+      </c>
+      <c r="BE24">
+        <v>2</v>
+      </c>
+      <c r="BQ24">
+        <v>7</v>
+      </c>
+      <c r="BR24">
         <v>8</v>
       </c>
-      <c r="AS24">
-        <v>4</v>
-      </c>
-      <c r="AU24">
-        <v>3</v>
-      </c>
-      <c r="AW24">
-        <v>13</v>
-      </c>
-      <c r="BD24">
-        <v>4</v>
-      </c>
-      <c r="BE24">
-        <v>2</v>
-      </c>
-      <c r="BQ24">
-        <v>7</v>
-      </c>
-      <c r="BR24">
-        <v>9</v>
-      </c>
       <c r="BT24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BW24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CC24">
         <v>3</v>
       </c>
       <c r="CL24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CN24">
         <v>7</v>
@@ -3034,88 +3007,88 @@
         <v>5</v>
       </c>
       <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>9</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+      <c r="AE25">
+        <v>7</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
         <v>8</v>
       </c>
-      <c r="M25">
+      <c r="AM25">
+        <v>4</v>
+      </c>
+      <c r="AQ25">
+        <v>7</v>
+      </c>
+      <c r="AU25">
+        <v>7</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+      <c r="AY25">
+        <v>6</v>
+      </c>
+      <c r="BD25">
+        <v>5</v>
+      </c>
+      <c r="BF25">
+        <v>3</v>
+      </c>
+      <c r="BJ25">
         <v>8</v>
       </c>
-      <c r="P25">
-        <v>6</v>
-      </c>
-      <c r="Y25">
-        <v>10</v>
-      </c>
-      <c r="AC25">
-        <v>3</v>
-      </c>
-      <c r="AE25">
-        <v>7</v>
-      </c>
-      <c r="AG25">
-        <v>1</v>
-      </c>
-      <c r="AH25">
-        <v>9</v>
-      </c>
-      <c r="AM25">
-        <v>4</v>
-      </c>
-      <c r="AQ25">
-        <v>7</v>
-      </c>
-      <c r="AU25">
+      <c r="BK25">
+        <v>6</v>
+      </c>
+      <c r="BM25">
+        <v>1</v>
+      </c>
+      <c r="BN25">
         <v>8</v>
       </c>
-      <c r="AX25">
-        <v>1</v>
-      </c>
-      <c r="AY25">
-        <v>7</v>
-      </c>
-      <c r="BD25">
-        <v>6</v>
-      </c>
-      <c r="BF25">
-        <v>4</v>
-      </c>
-      <c r="BJ25">
-        <v>9</v>
-      </c>
-      <c r="BK25">
-        <v>7</v>
-      </c>
-      <c r="BM25">
-        <v>1</v>
-      </c>
-      <c r="BN25">
-        <v>9</v>
-      </c>
       <c r="BO25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BU25">
         <v>1</v>
       </c>
       <c r="BW25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CE25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG25">
         <v>1</v>
       </c>
       <c r="CJ25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CN25">
         <v>1</v>
@@ -3414,7 +3387,7 @@
         <v>28</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -3426,16 +3399,16 @@
         <v>3</v>
       </c>
       <c r="U29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y29">
         <v>3</v>
       </c>
       <c r="AC29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE29">
         <v>2</v>
@@ -3447,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -3456,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="AV29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY29">
         <v>2</v>
@@ -3468,7 +3441,7 @@
         <v>2</v>
       </c>
       <c r="BI29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ29">
         <v>3</v>
@@ -3483,34 +3456,34 @@
         <v>3</v>
       </c>
       <c r="BS29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BW29">
         <v>3</v>
       </c>
       <c r="CA29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CE29">
         <v>2</v>
       </c>
       <c r="CF29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CG29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CJ29">
         <v>2</v>
       </c>
       <c r="CK29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL29">
         <v>2</v>
       </c>
       <c r="CQ29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:95" x14ac:dyDescent="0.25">
@@ -3898,97 +3871,97 @@
         <v>2</v>
       </c>
       <c r="L34">
+        <v>7</v>
+      </c>
+      <c r="M34">
+        <v>7</v>
+      </c>
+      <c r="P34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="X34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
         <v>8</v>
       </c>
-      <c r="M34">
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AE34">
+        <v>7</v>
+      </c>
+      <c r="AH34">
+        <v>11</v>
+      </c>
+      <c r="AI34">
+        <v>2</v>
+      </c>
+      <c r="AM34">
+        <v>4</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AQ34">
+        <v>7</v>
+      </c>
+      <c r="AU34">
+        <v>9</v>
+      </c>
+      <c r="AY34">
+        <v>6</v>
+      </c>
+      <c r="BD34">
+        <v>4</v>
+      </c>
+      <c r="BE34">
+        <v>2</v>
+      </c>
+      <c r="BF34">
+        <v>3</v>
+      </c>
+      <c r="BJ34">
         <v>8</v>
       </c>
-      <c r="P34">
-        <v>5</v>
-      </c>
-      <c r="R34">
-        <v>3</v>
-      </c>
-      <c r="T34">
-        <v>2</v>
-      </c>
-      <c r="X34">
-        <v>3</v>
-      </c>
-      <c r="Y34">
-        <v>9</v>
-      </c>
-      <c r="AC34">
-        <v>3</v>
-      </c>
-      <c r="AE34">
-        <v>7</v>
-      </c>
-      <c r="AH34">
-        <v>12</v>
-      </c>
-      <c r="AI34">
-        <v>2</v>
-      </c>
-      <c r="AM34">
-        <v>4</v>
-      </c>
-      <c r="AN34">
-        <v>3</v>
-      </c>
-      <c r="AQ34">
-        <v>7</v>
-      </c>
-      <c r="AU34">
-        <v>10</v>
-      </c>
-      <c r="AY34">
-        <v>7</v>
-      </c>
-      <c r="BD34">
-        <v>5</v>
-      </c>
-      <c r="BE34">
-        <v>2</v>
-      </c>
-      <c r="BF34">
-        <v>4</v>
-      </c>
-      <c r="BJ34">
-        <v>9</v>
-      </c>
       <c r="BK34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BN34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BO34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BQ34">
         <v>3</v>
       </c>
       <c r="BW34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CC34">
         <v>3</v>
       </c>
       <c r="CE34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CN34">
         <v>3</v>
@@ -4088,13 +4061,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4106,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="V36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA36">
         <v>1</v>
@@ -4118,22 +4091,22 @@
         <v>1</v>
       </c>
       <c r="AJ36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL36">
         <v>3</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA36">
         <v>1</v>
@@ -4142,7 +4115,7 @@
         <v>2</v>
       </c>
       <c r="BI36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL36">
         <v>2</v>
@@ -4160,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="CO36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:95" x14ac:dyDescent="0.25">
@@ -4168,10 +4141,10 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -4183,13 +4156,13 @@
         <v>2</v>
       </c>
       <c r="T37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z37">
         <v>1</v>
@@ -4198,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="AK37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -4207,14 +4180,14 @@
         <v>2</v>
       </c>
       <c r="AP37">
+        <v>7</v>
+      </c>
+      <c r="AR37">
+        <v>1</v>
+      </c>
+      <c r="AW37">
         <v>8</v>
       </c>
-      <c r="AR37">
-        <v>1</v>
-      </c>
-      <c r="AW37">
-        <v>9</v>
-      </c>
       <c r="AZ37">
         <v>1</v>
       </c>
@@ -4234,16 +4207,16 @@
         <v>3</v>
       </c>
       <c r="BR37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BT37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BV37">
         <v>3</v>
       </c>
       <c r="BW37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CA37">
         <v>1</v>
@@ -4255,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="CL37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CM37">
         <v>2</v>
@@ -4563,56 +4536,56 @@
         <v>40</v>
       </c>
       <c r="G41">
+        <v>9</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>9</v>
+      </c>
+      <c r="W41">
+        <v>8</v>
+      </c>
+      <c r="AC41">
+        <v>4</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>2</v>
+      </c>
+      <c r="AO41">
+        <v>13</v>
+      </c>
+      <c r="AV41">
+        <v>5</v>
+      </c>
+      <c r="AX41">
+        <v>1</v>
+      </c>
+      <c r="AZ41">
+        <v>1</v>
+      </c>
+      <c r="BG41">
+        <v>2</v>
+      </c>
+      <c r="BI41">
         <v>10</v>
       </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="U41">
-        <v>10</v>
-      </c>
-      <c r="W41">
+      <c r="BM41">
+        <v>2</v>
+      </c>
+      <c r="BS41">
         <v>9</v>
       </c>
-      <c r="AC41">
-        <v>5</v>
-      </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
-      <c r="AK41">
-        <v>2</v>
-      </c>
-      <c r="AO41">
-        <v>14</v>
-      </c>
-      <c r="AV41">
-        <v>6</v>
-      </c>
-      <c r="AX41">
-        <v>1</v>
-      </c>
-      <c r="AZ41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>2</v>
-      </c>
-      <c r="BI41">
-        <v>11</v>
-      </c>
-      <c r="BM41">
-        <v>2</v>
-      </c>
-      <c r="BS41">
-        <v>10</v>
-      </c>
       <c r="BU41">
         <v>2</v>
       </c>
@@ -4626,7 +4599,7 @@
         <v>2</v>
       </c>
       <c r="CA41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CB41">
         <v>1</v>
@@ -4635,17 +4608,17 @@
         <v>1</v>
       </c>
       <c r="CF41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CG41">
+        <v>8</v>
+      </c>
+      <c r="CH41">
+        <v>4</v>
+      </c>
+      <c r="CK41">
         <v>9</v>
       </c>
-      <c r="CH41">
-        <v>4</v>
-      </c>
-      <c r="CK41">
-        <v>10</v>
-      </c>
       <c r="CM41">
         <v>2</v>
       </c>
@@ -4656,7 +4629,7 @@
         <v>3</v>
       </c>
       <c r="CQ41">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:95" x14ac:dyDescent="0.25">
@@ -4664,10 +4637,10 @@
         <v>41</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -4682,13 +4655,13 @@
         <v>2</v>
       </c>
       <c r="T42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z42">
         <v>2</v>
@@ -4700,13 +4673,13 @@
         <v>2</v>
       </c>
       <c r="AK42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ42">
         <v>2</v>
@@ -4715,19 +4688,19 @@
         <v>2</v>
       </c>
       <c r="BR42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BT42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BW42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CC42">
         <v>2</v>
       </c>
       <c r="CL42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:95" x14ac:dyDescent="0.25">
@@ -4735,10 +4708,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L43">
         <v>7</v>
@@ -4749,9 +4722,6 @@
       <c r="P43">
         <v>3</v>
       </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
       <c r="Y43">
         <v>7</v>
       </c>
@@ -4765,22 +4735,22 @@
         <v>7</v>
       </c>
       <c r="AJ43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM43">
         <v>3</v>
       </c>
       <c r="AQ43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>6</v>
       </c>
       <c r="AX43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY43">
         <v>6</v>
@@ -4792,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="BI43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ43">
         <v>7</v>
@@ -4828,7 +4798,7 @@
         <v>6</v>
       </c>
       <c r="CO43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:95" x14ac:dyDescent="0.25">
@@ -4922,13 +4892,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4942,9 +4912,6 @@
       <c r="U45">
         <v>3</v>
       </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
       <c r="X45">
         <v>4</v>
       </c>
@@ -4961,7 +4928,7 @@
         <v>5</v>
       </c>
       <c r="AJ45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL45">
         <v>1</v>
@@ -4970,16 +4937,16 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW45">
         <v>4</v>
       </c>
       <c r="AX45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA45">
         <v>1</v>
@@ -4988,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="BI45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ45">
         <v>4</v>
@@ -5006,7 +4973,7 @@
         <v>4</v>
       </c>
       <c r="CO45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:95" x14ac:dyDescent="0.25">
@@ -5103,13 +5070,13 @@
         <v>2</v>
       </c>
       <c r="L47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R47">
         <v>3</v>
@@ -5121,7 +5088,7 @@
         <v>3</v>
       </c>
       <c r="Y47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC47">
         <v>1</v>
@@ -5133,55 +5100,55 @@
         <v>1</v>
       </c>
       <c r="AH47">
+        <v>9</v>
+      </c>
+      <c r="AI47">
+        <v>2</v>
+      </c>
+      <c r="AM47">
+        <v>2</v>
+      </c>
+      <c r="AN47">
+        <v>3</v>
+      </c>
+      <c r="AQ47">
+        <v>6</v>
+      </c>
+      <c r="AU47">
         <v>10</v>
       </c>
-      <c r="AI47">
-        <v>2</v>
-      </c>
-      <c r="AM47">
-        <v>2</v>
-      </c>
-      <c r="AN47">
-        <v>3</v>
-      </c>
-      <c r="AQ47">
-        <v>6</v>
-      </c>
-      <c r="AU47">
-        <v>11</v>
-      </c>
       <c r="AX47">
         <v>1</v>
       </c>
       <c r="AY47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE47">
         <v>2</v>
       </c>
       <c r="BF47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BM47">
         <v>1</v>
       </c>
       <c r="BN47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BO47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BQ47">
         <v>3</v>
@@ -5190,25 +5157,25 @@
         <v>1</v>
       </c>
       <c r="BW47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CC47">
         <v>3</v>
       </c>
       <c r="CE47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CF47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CG47">
         <v>1</v>
       </c>
       <c r="CJ47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CL47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CN47">
         <v>4</v>
@@ -5225,73 +5192,73 @@
         <v>2</v>
       </c>
       <c r="G48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q48">
         <v>3</v>
       </c>
       <c r="U48">
+        <v>7</v>
+      </c>
+      <c r="W48">
+        <v>7</v>
+      </c>
+      <c r="AC48">
+        <v>5</v>
+      </c>
+      <c r="AE48">
+        <v>3</v>
+      </c>
+      <c r="AL48">
+        <v>3</v>
+      </c>
+      <c r="AO48">
+        <v>5</v>
+      </c>
+      <c r="AT48">
+        <v>3</v>
+      </c>
+      <c r="AV48">
+        <v>11</v>
+      </c>
+      <c r="AX48">
+        <v>2</v>
+      </c>
+      <c r="BB48">
+        <v>2</v>
+      </c>
+      <c r="BE48">
+        <v>2</v>
+      </c>
+      <c r="BF48">
+        <v>1</v>
+      </c>
+      <c r="BI48">
+        <v>7</v>
+      </c>
+      <c r="BR48">
+        <v>2</v>
+      </c>
+      <c r="BS48">
         <v>8</v>
       </c>
-      <c r="W48">
+      <c r="CA48">
         <v>8</v>
       </c>
-      <c r="AC48">
-        <v>6</v>
-      </c>
-      <c r="AE48">
-        <v>3</v>
-      </c>
-      <c r="AL48">
-        <v>3</v>
-      </c>
-      <c r="AO48">
-        <v>6</v>
-      </c>
-      <c r="AT48">
-        <v>3</v>
-      </c>
-      <c r="AV48">
-        <v>12</v>
-      </c>
-      <c r="AX48">
-        <v>2</v>
-      </c>
-      <c r="BB48">
-        <v>2</v>
-      </c>
-      <c r="BE48">
-        <v>2</v>
-      </c>
-      <c r="BF48">
-        <v>1</v>
-      </c>
-      <c r="BI48">
+      <c r="CB48">
+        <v>2</v>
+      </c>
+      <c r="CF48">
+        <v>4</v>
+      </c>
+      <c r="CG48">
+        <v>7</v>
+      </c>
+      <c r="CK48">
         <v>8</v>
       </c>
-      <c r="BR48">
-        <v>2</v>
-      </c>
-      <c r="BS48">
-        <v>9</v>
-      </c>
-      <c r="CA48">
-        <v>9</v>
-      </c>
-      <c r="CB48">
-        <v>2</v>
-      </c>
-      <c r="CF48">
-        <v>5</v>
-      </c>
-      <c r="CG48">
-        <v>8</v>
-      </c>
-      <c r="CK48">
-        <v>9</v>
-      </c>
       <c r="CQ48">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:95" x14ac:dyDescent="0.25">
@@ -5299,35 +5266,35 @@
         <v>48</v>
       </c>
       <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="R49">
+        <v>5</v>
+      </c>
+      <c r="S49">
+        <v>4</v>
+      </c>
+      <c r="T49">
+        <v>8</v>
+      </c>
+      <c r="U49">
         <v>11</v>
       </c>
-      <c r="F49">
-        <v>6</v>
-      </c>
-      <c r="K49">
-        <v>3</v>
-      </c>
-      <c r="N49">
-        <v>5</v>
-      </c>
-      <c r="R49">
-        <v>5</v>
-      </c>
-      <c r="S49">
-        <v>4</v>
-      </c>
-      <c r="T49">
-        <v>9</v>
-      </c>
-      <c r="U49">
+      <c r="W49">
+        <v>2</v>
+      </c>
+      <c r="X49">
         <v>12</v>
       </c>
-      <c r="W49">
-        <v>2</v>
-      </c>
-      <c r="X49">
-        <v>13</v>
-      </c>
       <c r="Z49">
         <v>2</v>
       </c>
@@ -5344,46 +5311,46 @@
         <v>4</v>
       </c>
       <c r="AK49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN49">
         <v>2</v>
       </c>
       <c r="AP49">
+        <v>7</v>
+      </c>
+      <c r="AS49">
+        <v>4</v>
+      </c>
+      <c r="AT49">
+        <v>3</v>
+      </c>
+      <c r="AW49">
+        <v>20</v>
+      </c>
+      <c r="BD49">
+        <v>4</v>
+      </c>
+      <c r="BG49">
+        <v>2</v>
+      </c>
+      <c r="BP49">
+        <v>2</v>
+      </c>
+      <c r="BQ49">
+        <v>4</v>
+      </c>
+      <c r="BR49">
         <v>8</v>
       </c>
-      <c r="AS49">
-        <v>4</v>
-      </c>
-      <c r="AT49">
-        <v>3</v>
-      </c>
-      <c r="AW49">
-        <v>21</v>
-      </c>
-      <c r="BD49">
-        <v>4</v>
-      </c>
-      <c r="BG49">
-        <v>2</v>
-      </c>
-      <c r="BP49">
-        <v>2</v>
-      </c>
-      <c r="BQ49">
-        <v>4</v>
-      </c>
-      <c r="BR49">
-        <v>9</v>
-      </c>
       <c r="BS49">
         <v>5</v>
       </c>
       <c r="BT49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BW49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BX49">
         <v>5</v>
@@ -5413,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="CL49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CM49">
         <v>5</v>
@@ -5427,10 +5394,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -5447,9 +5414,6 @@
       <c r="Q50">
         <v>2</v>
       </c>
-      <c r="V50">
-        <v>1</v>
-      </c>
       <c r="Y50">
         <v>1</v>
       </c>
@@ -5460,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="AJ50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL50">
         <v>2</v>
@@ -5469,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>2</v>
@@ -5484,7 +5448,7 @@
         <v>2</v>
       </c>
       <c r="AX50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB50">
         <v>1</v>
@@ -5502,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="BI50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM50">
         <v>1</v>
@@ -5535,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="CO50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CQ50">
         <v>1</v>
@@ -5549,16 +5513,16 @@
         <v>4</v>
       </c>
       <c r="L51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC51">
         <v>2</v>
@@ -5567,7 +5531,7 @@
         <v>6</v>
       </c>
       <c r="AH51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM51">
         <v>2</v>
@@ -5576,46 +5540,46 @@
         <v>6</v>
       </c>
       <c r="AU51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BN51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BO51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BW51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CE51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CF51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CJ51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CL51">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:95" x14ac:dyDescent="0.25">
@@ -5874,13 +5838,13 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S56">
         <v>4</v>
@@ -5892,7 +5856,7 @@
         <v>4</v>
       </c>
       <c r="Y56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC56">
         <v>3</v>
@@ -5907,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="AH56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI56">
         <v>4</v>
@@ -5925,7 +5889,7 @@
         <v>4</v>
       </c>
       <c r="AU56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW56">
         <v>4</v>
@@ -5934,31 +5898,31 @@
         <v>1</v>
       </c>
       <c r="AY56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM56">
         <v>1</v>
       </c>
       <c r="BN56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ56">
         <v>4</v>
@@ -5967,22 +5931,22 @@
         <v>1</v>
       </c>
       <c r="BW56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CF56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG56">
         <v>1</v>
       </c>
       <c r="CJ56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CL56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CN56">
         <v>5</v>
@@ -6130,19 +6094,19 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q58">
         <v>1</v>
       </c>
       <c r="Y58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC58">
         <v>2</v>
@@ -6151,7 +6115,7 @@
         <v>4</v>
       </c>
       <c r="AH58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL58">
         <v>1</v>
@@ -6166,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="AU58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV58">
         <v>1</v>
@@ -6175,49 +6139,49 @@
         <v>1</v>
       </c>
       <c r="AY58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR58">
         <v>1</v>
       </c>
       <c r="BW58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CB58">
         <v>1</v>
       </c>
       <c r="CE58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CF58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CL58">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:95" x14ac:dyDescent="0.25">
@@ -6382,100 +6346,97 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R61">
         <v>2</v>
       </c>
       <c r="U61">
+        <v>10</v>
+      </c>
+      <c r="W61">
+        <v>10</v>
+      </c>
+      <c r="AC61">
+        <v>7</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>10</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AS61">
+        <v>1</v>
+      </c>
+      <c r="AV61">
+        <v>7</v>
+      </c>
+      <c r="AX61">
+        <v>1</v>
+      </c>
+      <c r="AZ61">
+        <v>1</v>
+      </c>
+      <c r="BI61">
+        <v>14</v>
+      </c>
+      <c r="BM61">
+        <v>2</v>
+      </c>
+      <c r="BS61">
         <v>11</v>
       </c>
-      <c r="V61">
-        <v>1</v>
-      </c>
-      <c r="W61">
+      <c r="BV61">
+        <v>2</v>
+      </c>
+      <c r="CA61">
+        <v>7</v>
+      </c>
+      <c r="CD61">
+        <v>1</v>
+      </c>
+      <c r="CF61">
+        <v>6</v>
+      </c>
+      <c r="CG61">
         <v>11</v>
       </c>
-      <c r="AC61">
-        <v>8</v>
-      </c>
-      <c r="AD61">
-        <v>1</v>
-      </c>
-      <c r="AJ61">
-        <v>2</v>
-      </c>
-      <c r="AK61">
-        <v>2</v>
-      </c>
-      <c r="AO61">
+      <c r="CH61">
+        <v>2</v>
+      </c>
+      <c r="CI61">
+        <v>1</v>
+      </c>
+      <c r="CK61">
         <v>11</v>
       </c>
-      <c r="AQ61">
-        <v>2</v>
-      </c>
-      <c r="AS61">
-        <v>2</v>
-      </c>
-      <c r="AV61">
-        <v>8</v>
-      </c>
-      <c r="AX61">
-        <v>2</v>
-      </c>
-      <c r="AZ61">
-        <v>1</v>
-      </c>
-      <c r="BI61">
-        <v>16</v>
-      </c>
-      <c r="BM61">
-        <v>2</v>
-      </c>
-      <c r="BS61">
-        <v>12</v>
-      </c>
-      <c r="BV61">
-        <v>2</v>
-      </c>
-      <c r="CA61">
-        <v>8</v>
-      </c>
-      <c r="CD61">
-        <v>1</v>
-      </c>
-      <c r="CF61">
-        <v>7</v>
-      </c>
-      <c r="CG61">
-        <v>12</v>
-      </c>
-      <c r="CH61">
-        <v>2</v>
-      </c>
-      <c r="CI61">
-        <v>1</v>
-      </c>
-      <c r="CK61">
-        <v>12</v>
-      </c>
       <c r="CM61">
         <v>2</v>
       </c>
       <c r="CO61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP61">
         <v>2</v>
       </c>
       <c r="CQ61">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:95" x14ac:dyDescent="0.25">
@@ -6489,44 +6450,44 @@
         <v>2</v>
       </c>
       <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <v>7</v>
+      </c>
+      <c r="O62">
+        <v>2</v>
+      </c>
+      <c r="P62">
+        <v>4</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="Y62">
         <v>8</v>
       </c>
-      <c r="M62">
+      <c r="Z62">
+        <v>2</v>
+      </c>
+      <c r="AB62">
+        <v>2</v>
+      </c>
+      <c r="AC62">
+        <v>3</v>
+      </c>
+      <c r="AD62">
+        <v>2</v>
+      </c>
+      <c r="AE62">
+        <v>7</v>
+      </c>
+      <c r="AH62">
         <v>8</v>
       </c>
-      <c r="O62">
-        <v>2</v>
-      </c>
-      <c r="P62">
-        <v>5</v>
-      </c>
-      <c r="Q62">
-        <v>2</v>
-      </c>
-      <c r="R62">
-        <v>2</v>
-      </c>
-      <c r="Y62">
-        <v>9</v>
-      </c>
-      <c r="Z62">
-        <v>2</v>
-      </c>
-      <c r="AB62">
-        <v>2</v>
-      </c>
-      <c r="AC62">
-        <v>3</v>
-      </c>
-      <c r="AD62">
-        <v>2</v>
-      </c>
-      <c r="AE62">
-        <v>7</v>
-      </c>
-      <c r="AH62">
-        <v>9</v>
-      </c>
       <c r="AM62">
         <v>4</v>
       </c>
@@ -6537,49 +6498,49 @@
         <v>7</v>
       </c>
       <c r="AU62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BN62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BO62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CC62">
         <v>2</v>
       </c>
       <c r="CE62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL62">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:95" x14ac:dyDescent="0.25">
@@ -6596,16 +6557,16 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O63">
         <v>3</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -6614,7 +6575,7 @@
         <v>2</v>
       </c>
       <c r="Y63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z63">
         <v>3</v>
@@ -6632,7 +6593,7 @@
         <v>6</v>
       </c>
       <c r="AH63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK63">
         <v>1</v>
@@ -6650,46 +6611,46 @@
         <v>1</v>
       </c>
       <c r="AU63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE63">
         <v>1</v>
       </c>
       <c r="BF63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH63">
         <v>1</v>
       </c>
       <c r="BJ63">
+        <v>8</v>
+      </c>
+      <c r="BK63">
         <v>9</v>
       </c>
-      <c r="BK63">
-        <v>10</v>
-      </c>
       <c r="BM63">
         <v>1</v>
       </c>
       <c r="BN63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BO63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BV63">
         <v>1</v>
       </c>
       <c r="BW63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CA63">
         <v>1</v>
@@ -6698,16 +6659,16 @@
         <v>2</v>
       </c>
       <c r="CE63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CF63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CL63">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:95" x14ac:dyDescent="0.25">
@@ -6878,26 +6839,26 @@
         <v>5</v>
       </c>
       <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>7</v>
+      </c>
+      <c r="P66">
+        <v>4</v>
+      </c>
+      <c r="Y66">
         <v>8</v>
       </c>
-      <c r="M66">
+      <c r="AC66">
+        <v>3</v>
+      </c>
+      <c r="AE66">
+        <v>7</v>
+      </c>
+      <c r="AH66">
         <v>8</v>
       </c>
-      <c r="P66">
-        <v>5</v>
-      </c>
-      <c r="Y66">
-        <v>9</v>
-      </c>
-      <c r="AC66">
-        <v>3</v>
-      </c>
-      <c r="AE66">
-        <v>7</v>
-      </c>
-      <c r="AH66">
-        <v>9</v>
-      </c>
       <c r="AM66">
         <v>4</v>
       </c>
@@ -6905,46 +6866,46 @@
         <v>7</v>
       </c>
       <c r="AU66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BN66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BO66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CE66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL66">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:95" x14ac:dyDescent="0.25">
@@ -6955,16 +6916,16 @@
         <v>2</v>
       </c>
       <c r="L67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC67">
         <v>3</v>
@@ -6973,7 +6934,7 @@
         <v>4</v>
       </c>
       <c r="AH67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM67">
         <v>3</v>
@@ -6982,46 +6943,46 @@
         <v>4</v>
       </c>
       <c r="AU67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BK67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BN67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BO67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CE67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CL67">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:95" x14ac:dyDescent="0.25">
@@ -7032,22 +6993,22 @@
         <v>4</v>
       </c>
       <c r="L68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N68">
         <v>2</v>
       </c>
       <c r="P68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R68">
         <v>2</v>
       </c>
       <c r="Y68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA68">
         <v>2</v>
@@ -7056,7 +7017,7 @@
         <v>4</v>
       </c>
       <c r="AH68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM68">
         <v>1</v>
@@ -7065,40 +7026,40 @@
         <v>4</v>
       </c>
       <c r="AU68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW68">
         <v>2</v>
       </c>
       <c r="AY68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BS68">
         <v>2</v>
       </c>
       <c r="BW68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX68">
         <v>2</v>
@@ -7107,19 +7068,19 @@
         <v>2</v>
       </c>
       <c r="CE68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CG68">
         <v>2</v>
       </c>
       <c r="CJ68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CL68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CM68">
         <v>2</v>
@@ -7198,10 +7159,10 @@
         <v>2</v>
       </c>
       <c r="D70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -7219,16 +7180,16 @@
         <v>2</v>
       </c>
       <c r="T70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V70">
         <v>2</v>
       </c>
       <c r="X70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z70">
         <v>2</v>
@@ -7243,7 +7204,7 @@
         <v>2</v>
       </c>
       <c r="AK70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL70">
         <v>2</v>
@@ -7252,17 +7213,17 @@
         <v>2</v>
       </c>
       <c r="AP70">
+        <v>7</v>
+      </c>
+      <c r="AT70">
+        <v>2</v>
+      </c>
+      <c r="AV70">
+        <v>2</v>
+      </c>
+      <c r="AW70">
         <v>8</v>
       </c>
-      <c r="AT70">
-        <v>2</v>
-      </c>
-      <c r="AV70">
-        <v>2</v>
-      </c>
-      <c r="AW70">
-        <v>9</v>
-      </c>
       <c r="AX70">
         <v>2</v>
       </c>
@@ -7282,16 +7243,16 @@
         <v>1</v>
       </c>
       <c r="BR70">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BS70">
         <v>1</v>
       </c>
       <c r="BT70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BW70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BZ70">
         <v>1</v>
@@ -7303,7 +7264,7 @@
         <v>4</v>
       </c>
       <c r="CL70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CP70">
         <v>2</v>
@@ -7317,7 +7278,7 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7335,97 +7296,97 @@
         <v>1</v>
       </c>
       <c r="U71">
+        <v>11</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>11</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <v>7</v>
+      </c>
+      <c r="AC71">
+        <v>7</v>
+      </c>
+      <c r="AF71">
+        <v>1</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
+      </c>
+      <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>9</v>
+      </c>
+      <c r="AS71">
+        <v>1</v>
+      </c>
+      <c r="AV71">
+        <v>8</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AZ71">
+        <v>1</v>
+      </c>
+      <c r="BA71">
+        <v>1</v>
+      </c>
+      <c r="BE71">
+        <v>1</v>
+      </c>
+      <c r="BI71">
+        <v>11</v>
+      </c>
+      <c r="BP71">
+        <v>2</v>
+      </c>
+      <c r="BR71">
+        <v>1</v>
+      </c>
+      <c r="BS71">
+        <v>19</v>
+      </c>
+      <c r="BX71">
+        <v>5</v>
+      </c>
+      <c r="CA71">
+        <v>8</v>
+      </c>
+      <c r="CC71">
+        <v>5</v>
+      </c>
+      <c r="CD71">
+        <v>1</v>
+      </c>
+      <c r="CF71">
+        <v>11</v>
+      </c>
+      <c r="CG71">
+        <v>16</v>
+      </c>
+      <c r="CK71">
         <v>12</v>
       </c>
-      <c r="V71">
-        <v>1</v>
-      </c>
-      <c r="W71">
-        <v>12</v>
-      </c>
-      <c r="Z71">
-        <v>1</v>
-      </c>
-      <c r="AA71">
-        <v>7</v>
-      </c>
-      <c r="AC71">
-        <v>8</v>
-      </c>
-      <c r="AF71">
-        <v>1</v>
-      </c>
-      <c r="AI71">
-        <v>1</v>
-      </c>
-      <c r="AJ71">
-        <v>1</v>
-      </c>
-      <c r="AL71">
-        <v>1</v>
-      </c>
-      <c r="AN71">
-        <v>1</v>
-      </c>
-      <c r="AO71">
+      <c r="CM71">
+        <v>6</v>
+      </c>
+      <c r="CQ71">
         <v>10</v>
-      </c>
-      <c r="AS71">
-        <v>1</v>
-      </c>
-      <c r="AV71">
-        <v>9</v>
-      </c>
-      <c r="AW71">
-        <v>5</v>
-      </c>
-      <c r="AZ71">
-        <v>1</v>
-      </c>
-      <c r="BA71">
-        <v>1</v>
-      </c>
-      <c r="BE71">
-        <v>1</v>
-      </c>
-      <c r="BI71">
-        <v>12</v>
-      </c>
-      <c r="BP71">
-        <v>2</v>
-      </c>
-      <c r="BR71">
-        <v>1</v>
-      </c>
-      <c r="BS71">
-        <v>20</v>
-      </c>
-      <c r="BX71">
-        <v>5</v>
-      </c>
-      <c r="CA71">
-        <v>9</v>
-      </c>
-      <c r="CC71">
-        <v>5</v>
-      </c>
-      <c r="CD71">
-        <v>1</v>
-      </c>
-      <c r="CF71">
-        <v>12</v>
-      </c>
-      <c r="CG71">
-        <v>17</v>
-      </c>
-      <c r="CK71">
-        <v>13</v>
-      </c>
-      <c r="CM71">
-        <v>6</v>
-      </c>
-      <c r="CQ71">
-        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:95" x14ac:dyDescent="0.25">
@@ -7433,40 +7394,40 @@
         <v>71</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BR72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BT72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BW72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CL72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:95" x14ac:dyDescent="0.25">
@@ -7616,106 +7577,106 @@
         <v>74</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E75">
         <v>5</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L75">
+        <v>7</v>
+      </c>
+      <c r="M75">
+        <v>7</v>
+      </c>
+      <c r="P75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>5</v>
+      </c>
+      <c r="U75">
+        <v>5</v>
+      </c>
+      <c r="X75">
+        <v>5</v>
+      </c>
+      <c r="Y75">
         <v>8</v>
       </c>
-      <c r="M75">
+      <c r="AC75">
+        <v>3</v>
+      </c>
+      <c r="AE75">
+        <v>7</v>
+      </c>
+      <c r="AH75">
         <v>8</v>
       </c>
-      <c r="P75">
-        <v>5</v>
-      </c>
-      <c r="T75">
-        <v>6</v>
-      </c>
-      <c r="U75">
-        <v>6</v>
-      </c>
-      <c r="X75">
-        <v>6</v>
-      </c>
-      <c r="Y75">
+      <c r="AK75">
+        <v>5</v>
+      </c>
+      <c r="AM75">
+        <v>4</v>
+      </c>
+      <c r="AP75">
+        <v>5</v>
+      </c>
+      <c r="AQ75">
+        <v>7</v>
+      </c>
+      <c r="AU75">
+        <v>6</v>
+      </c>
+      <c r="AW75">
+        <v>5</v>
+      </c>
+      <c r="AY75">
+        <v>6</v>
+      </c>
+      <c r="BD75">
+        <v>4</v>
+      </c>
+      <c r="BF75">
+        <v>3</v>
+      </c>
+      <c r="BJ75">
+        <v>8</v>
+      </c>
+      <c r="BK75">
+        <v>6</v>
+      </c>
+      <c r="BN75">
+        <v>8</v>
+      </c>
+      <c r="BO75">
+        <v>5</v>
+      </c>
+      <c r="BP75">
+        <v>4</v>
+      </c>
+      <c r="BR75">
+        <v>5</v>
+      </c>
+      <c r="BT75">
+        <v>3</v>
+      </c>
+      <c r="BW75">
+        <v>13</v>
+      </c>
+      <c r="CE75">
+        <v>7</v>
+      </c>
+      <c r="CF75">
+        <v>4</v>
+      </c>
+      <c r="CJ75">
+        <v>7</v>
+      </c>
+      <c r="CL75">
         <v>9</v>
-      </c>
-      <c r="AC75">
-        <v>3</v>
-      </c>
-      <c r="AE75">
-        <v>7</v>
-      </c>
-      <c r="AH75">
-        <v>9</v>
-      </c>
-      <c r="AK75">
-        <v>6</v>
-      </c>
-      <c r="AM75">
-        <v>4</v>
-      </c>
-      <c r="AP75">
-        <v>6</v>
-      </c>
-      <c r="AQ75">
-        <v>7</v>
-      </c>
-      <c r="AU75">
-        <v>7</v>
-      </c>
-      <c r="AW75">
-        <v>6</v>
-      </c>
-      <c r="AY75">
-        <v>7</v>
-      </c>
-      <c r="BD75">
-        <v>5</v>
-      </c>
-      <c r="BF75">
-        <v>4</v>
-      </c>
-      <c r="BJ75">
-        <v>9</v>
-      </c>
-      <c r="BK75">
-        <v>7</v>
-      </c>
-      <c r="BN75">
-        <v>9</v>
-      </c>
-      <c r="BO75">
-        <v>6</v>
-      </c>
-      <c r="BP75">
-        <v>5</v>
-      </c>
-      <c r="BR75">
-        <v>6</v>
-      </c>
-      <c r="BT75">
-        <v>4</v>
-      </c>
-      <c r="BW75">
-        <v>15</v>
-      </c>
-      <c r="CE75">
-        <v>8</v>
-      </c>
-      <c r="CF75">
-        <v>5</v>
-      </c>
-      <c r="CJ75">
-        <v>8</v>
-      </c>
-      <c r="CL75">
-        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:95" x14ac:dyDescent="0.25">
@@ -7924,97 +7885,97 @@
         <v>78</v>
       </c>
       <c r="G79">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>7</v>
+      </c>
+      <c r="W79">
+        <v>8</v>
+      </c>
+      <c r="Z79">
+        <v>2</v>
+      </c>
+      <c r="AC79">
+        <v>5</v>
+      </c>
+      <c r="AG79">
+        <v>1</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>5</v>
+      </c>
+      <c r="AR79">
+        <v>1</v>
+      </c>
+      <c r="AT79">
+        <v>1</v>
+      </c>
+      <c r="AV79">
+        <v>8</v>
+      </c>
+      <c r="AW79">
+        <v>1</v>
+      </c>
+      <c r="BE79">
+        <v>1</v>
+      </c>
+      <c r="BG79">
+        <v>1</v>
+      </c>
+      <c r="BH79">
+        <v>1</v>
+      </c>
+      <c r="BI79">
+        <v>7</v>
+      </c>
+      <c r="BK79">
+        <v>1</v>
+      </c>
+      <c r="BM79">
+        <v>1</v>
+      </c>
+      <c r="BS79">
+        <v>8</v>
+      </c>
+      <c r="BV79">
+        <v>1</v>
+      </c>
+      <c r="BZ79">
+        <v>1</v>
+      </c>
+      <c r="CA79">
+        <v>10</v>
+      </c>
+      <c r="CF79">
+        <v>4</v>
+      </c>
+      <c r="CG79">
+        <v>8</v>
+      </c>
+      <c r="CH79">
+        <v>1</v>
+      </c>
+      <c r="CK79">
         <v>9</v>
       </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="U79">
-        <v>8</v>
-      </c>
-      <c r="W79">
-        <v>9</v>
-      </c>
-      <c r="Z79">
-        <v>2</v>
-      </c>
-      <c r="AC79">
-        <v>6</v>
-      </c>
-      <c r="AG79">
-        <v>1</v>
-      </c>
-      <c r="AK79">
-        <v>1</v>
-      </c>
-      <c r="AM79">
-        <v>1</v>
-      </c>
-      <c r="AO79">
-        <v>6</v>
-      </c>
-      <c r="AR79">
-        <v>1</v>
-      </c>
-      <c r="AT79">
-        <v>1</v>
-      </c>
-      <c r="AV79">
-        <v>9</v>
-      </c>
-      <c r="AW79">
-        <v>1</v>
-      </c>
-      <c r="BE79">
-        <v>1</v>
-      </c>
-      <c r="BG79">
-        <v>1</v>
-      </c>
-      <c r="BH79">
-        <v>1</v>
-      </c>
-      <c r="BI79">
-        <v>8</v>
-      </c>
-      <c r="BK79">
-        <v>1</v>
-      </c>
-      <c r="BM79">
-        <v>1</v>
-      </c>
-      <c r="BS79">
-        <v>9</v>
-      </c>
-      <c r="BV79">
-        <v>1</v>
-      </c>
-      <c r="BZ79">
-        <v>1</v>
-      </c>
-      <c r="CA79">
-        <v>11</v>
-      </c>
-      <c r="CF79">
-        <v>5</v>
-      </c>
-      <c r="CG79">
-        <v>9</v>
-      </c>
-      <c r="CH79">
-        <v>1</v>
-      </c>
-      <c r="CK79">
-        <v>10</v>
-      </c>
       <c r="CQ79">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:95" x14ac:dyDescent="0.25">
@@ -8334,16 +8295,16 @@
         <v>5</v>
       </c>
       <c r="L83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC83">
         <v>2</v>
@@ -8352,7 +8313,7 @@
         <v>6</v>
       </c>
       <c r="AH83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM83">
         <v>3</v>
@@ -8361,46 +8322,46 @@
         <v>6</v>
       </c>
       <c r="AU83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BN83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL83">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:95" x14ac:dyDescent="0.25">
@@ -8411,127 +8372,127 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N84">
         <v>5</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R84">
         <v>5</v>
       </c>
       <c r="U84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA84">
         <v>5</v>
       </c>
       <c r="AC84">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE84">
         <v>3</v>
       </c>
       <c r="AH84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM84">
         <v>4</v>
       </c>
       <c r="AO84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ84">
         <v>3</v>
       </c>
       <c r="AU84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW84">
         <v>5</v>
       </c>
       <c r="AY84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BN84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BS84">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BW84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX84">
         <v>5</v>
       </c>
       <c r="CA84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC84">
         <v>5</v>
       </c>
       <c r="CE84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CF84">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="CG84">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="CJ84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CK84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CL84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CM84">
         <v>5</v>
       </c>
       <c r="CQ84">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:95" x14ac:dyDescent="0.25">
@@ -8542,26 +8503,26 @@
         <v>1</v>
       </c>
       <c r="G85">
+        <v>11</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>5</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>5</v>
+      </c>
+      <c r="U85">
+        <v>10</v>
+      </c>
+      <c r="W85">
         <v>12</v>
       </c>
-      <c r="K85">
-        <v>3</v>
-      </c>
-      <c r="N85">
-        <v>5</v>
-      </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
-      <c r="R85">
-        <v>5</v>
-      </c>
-      <c r="U85">
-        <v>11</v>
-      </c>
-      <c r="W85">
-        <v>13</v>
-      </c>
       <c r="Y85">
         <v>1</v>
       </c>
@@ -8572,14 +8533,14 @@
         <v>5</v>
       </c>
       <c r="AC85">
+        <v>7</v>
+      </c>
+      <c r="AG85">
+        <v>4</v>
+      </c>
+      <c r="AO85">
         <v>8</v>
       </c>
-      <c r="AG85">
-        <v>4</v>
-      </c>
-      <c r="AO85">
-        <v>9</v>
-      </c>
       <c r="AT85">
         <v>3</v>
       </c>
@@ -8587,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="AV85">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW85">
         <v>8</v>
@@ -8602,58 +8563,58 @@
         <v>2</v>
       </c>
       <c r="BI85">
+        <v>11</v>
+      </c>
+      <c r="BM85">
+        <v>1</v>
+      </c>
+      <c r="BP85">
+        <v>2</v>
+      </c>
+      <c r="BS85">
+        <v>16</v>
+      </c>
+      <c r="BU85">
+        <v>1</v>
+      </c>
+      <c r="BX85">
+        <v>5</v>
+      </c>
+      <c r="BZ85">
+        <v>2</v>
+      </c>
+      <c r="CA85">
+        <v>8</v>
+      </c>
+      <c r="CC85">
+        <v>5</v>
+      </c>
+      <c r="CF85">
+        <v>11</v>
+      </c>
+      <c r="CG85">
+        <v>20</v>
+      </c>
+      <c r="CH85">
+        <v>1</v>
+      </c>
+      <c r="CI85">
+        <v>1</v>
+      </c>
+      <c r="CK85">
         <v>12</v>
       </c>
-      <c r="BM85">
-        <v>1</v>
-      </c>
-      <c r="BP85">
-        <v>2</v>
-      </c>
-      <c r="BS85">
-        <v>17</v>
-      </c>
-      <c r="BU85">
-        <v>1</v>
-      </c>
-      <c r="BX85">
-        <v>5</v>
-      </c>
-      <c r="BZ85">
-        <v>2</v>
-      </c>
-      <c r="CA85">
+      <c r="CM85">
+        <v>5</v>
+      </c>
+      <c r="CN85">
+        <v>1</v>
+      </c>
+      <c r="CO85">
+        <v>1</v>
+      </c>
+      <c r="CQ85">
         <v>9</v>
-      </c>
-      <c r="CC85">
-        <v>5</v>
-      </c>
-      <c r="CF85">
-        <v>12</v>
-      </c>
-      <c r="CG85">
-        <v>21</v>
-      </c>
-      <c r="CH85">
-        <v>1</v>
-      </c>
-      <c r="CI85">
-        <v>1</v>
-      </c>
-      <c r="CK85">
-        <v>13</v>
-      </c>
-      <c r="CM85">
-        <v>5</v>
-      </c>
-      <c r="CN85">
-        <v>1</v>
-      </c>
-      <c r="CO85">
-        <v>1</v>
-      </c>
-      <c r="CQ85">
-        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:95" x14ac:dyDescent="0.25">
@@ -8845,16 +8806,16 @@
         <v>5</v>
       </c>
       <c r="L88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC88">
         <v>2</v>
@@ -8863,7 +8824,7 @@
         <v>6</v>
       </c>
       <c r="AH88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM88">
         <v>3</v>
@@ -8872,46 +8833,46 @@
         <v>6</v>
       </c>
       <c r="AU88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BN88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CE88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CF88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CL88">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:95" x14ac:dyDescent="0.25">
@@ -8919,67 +8880,67 @@
         <v>88</v>
       </c>
       <c r="G89">
+        <v>12</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="U89">
+        <v>11</v>
+      </c>
+      <c r="W89">
+        <v>12</v>
+      </c>
+      <c r="Z89">
+        <v>1</v>
+      </c>
+      <c r="AC89">
+        <v>7</v>
+      </c>
+      <c r="AG89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>9</v>
+      </c>
+      <c r="AT89">
+        <v>1</v>
+      </c>
+      <c r="AV89">
+        <v>8</v>
+      </c>
+      <c r="AW89">
+        <v>1</v>
+      </c>
+      <c r="BG89">
+        <v>1</v>
+      </c>
+      <c r="BI89">
+        <v>11</v>
+      </c>
+      <c r="BS89">
+        <v>12</v>
+      </c>
+      <c r="BZ89">
+        <v>1</v>
+      </c>
+      <c r="CA89">
+        <v>9</v>
+      </c>
+      <c r="CF89">
+        <v>6</v>
+      </c>
+      <c r="CG89">
+        <v>12</v>
+      </c>
+      <c r="CH89">
+        <v>1</v>
+      </c>
+      <c r="CK89">
         <v>13</v>
       </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="U89">
-        <v>12</v>
-      </c>
-      <c r="W89">
-        <v>13</v>
-      </c>
-      <c r="Z89">
-        <v>1</v>
-      </c>
-      <c r="AC89">
-        <v>8</v>
-      </c>
-      <c r="AG89">
-        <v>1</v>
-      </c>
-      <c r="AO89">
+      <c r="CQ89">
         <v>10</v>
-      </c>
-      <c r="AT89">
-        <v>1</v>
-      </c>
-      <c r="AV89">
-        <v>9</v>
-      </c>
-      <c r="AW89">
-        <v>1</v>
-      </c>
-      <c r="BG89">
-        <v>1</v>
-      </c>
-      <c r="BI89">
-        <v>12</v>
-      </c>
-      <c r="BS89">
-        <v>13</v>
-      </c>
-      <c r="BZ89">
-        <v>1</v>
-      </c>
-      <c r="CA89">
-        <v>10</v>
-      </c>
-      <c r="CF89">
-        <v>7</v>
-      </c>
-      <c r="CG89">
-        <v>13</v>
-      </c>
-      <c r="CH89">
-        <v>1</v>
-      </c>
-      <c r="CK89">
-        <v>14</v>
-      </c>
-      <c r="CQ89">
-        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:95" x14ac:dyDescent="0.25">
@@ -8987,34 +8948,34 @@
         <v>89</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E90">
         <v>4</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC90">
         <v>2</v>
@@ -9023,70 +8984,70 @@
         <v>6</v>
       </c>
       <c r="AH90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM90">
         <v>3</v>
       </c>
       <c r="AP90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ90">
         <v>6</v>
       </c>
       <c r="AU90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BN90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BO90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BR90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BT90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW90">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="CE90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CF90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CL90">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:95" x14ac:dyDescent="0.25">
@@ -9284,10 +9245,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>2</v>
@@ -9298,9 +9259,6 @@
       <c r="P93">
         <v>1</v>
       </c>
-      <c r="V93">
-        <v>1</v>
-      </c>
       <c r="Y93">
         <v>1</v>
       </c>
@@ -9308,22 +9266,22 @@
         <v>1</v>
       </c>
       <c r="AJ93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO93">
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU93">
         <v>1</v>
       </c>
       <c r="AX93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD93">
         <v>1</v>
@@ -9332,7 +9290,7 @@
         <v>2</v>
       </c>
       <c r="BI93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM93">
         <v>1</v>
@@ -9362,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="CO93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP93">
         <v>1</v>
@@ -9471,56 +9429,56 @@
         <v>94</v>
       </c>
       <c r="G95">
+        <v>10</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="U95">
+        <v>10</v>
+      </c>
+      <c r="W95">
+        <v>9</v>
+      </c>
+      <c r="AC95">
+        <v>5</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AK95">
+        <v>2</v>
+      </c>
+      <c r="AO95">
+        <v>12</v>
+      </c>
+      <c r="AV95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>1</v>
+      </c>
+      <c r="AZ95">
+        <v>1</v>
+      </c>
+      <c r="BG95">
+        <v>2</v>
+      </c>
+      <c r="BI95">
         <v>11</v>
       </c>
-      <c r="J95">
-        <v>2</v>
-      </c>
-      <c r="K95">
-        <v>2</v>
-      </c>
-      <c r="R95">
-        <v>2</v>
-      </c>
-      <c r="U95">
-        <v>11</v>
-      </c>
-      <c r="W95">
+      <c r="BM95">
+        <v>2</v>
+      </c>
+      <c r="BS95">
         <v>10</v>
       </c>
-      <c r="AC95">
-        <v>6</v>
-      </c>
-      <c r="AD95">
-        <v>1</v>
-      </c>
-      <c r="AK95">
-        <v>2</v>
-      </c>
-      <c r="AO95">
-        <v>13</v>
-      </c>
-      <c r="AV95">
-        <v>8</v>
-      </c>
-      <c r="AX95">
-        <v>1</v>
-      </c>
-      <c r="AZ95">
-        <v>1</v>
-      </c>
-      <c r="BG95">
-        <v>2</v>
-      </c>
-      <c r="BI95">
-        <v>12</v>
-      </c>
-      <c r="BM95">
-        <v>2</v>
-      </c>
-      <c r="BS95">
-        <v>11</v>
-      </c>
       <c r="BU95">
         <v>2</v>
       </c>
@@ -9534,7 +9492,7 @@
         <v>2</v>
       </c>
       <c r="CA95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CB95">
         <v>1</v>
@@ -9543,17 +9501,17 @@
         <v>1</v>
       </c>
       <c r="CF95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG95">
+        <v>9</v>
+      </c>
+      <c r="CH95">
+        <v>4</v>
+      </c>
+      <c r="CK95">
         <v>10</v>
       </c>
-      <c r="CH95">
-        <v>4</v>
-      </c>
-      <c r="CK95">
-        <v>11</v>
-      </c>
       <c r="CM95">
         <v>2</v>
       </c>
@@ -9564,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="CQ95">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/house_all_committee_votes.xlsx
+++ b/outputs/house_all_committee_votes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/outputs/house_all_committee_votes.xlsx
+++ b/outputs/house_all_committee_votes.xlsx
@@ -1019,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1030,9 +1030,6 @@
       <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="N3">
         <v>2</v>
       </c>
@@ -1040,16 +1037,13 @@
         <v>2</v>
       </c>
       <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="T3">
         <v>1</v>
       </c>
       <c r="W3">
         <v>2</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>2</v>
@@ -1058,19 +1052,19 @@
         <v>2</v>
       </c>
       <c r="AH3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>2</v>
       </c>
       <c r="AU3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA3">
         <v>2</v>
@@ -1091,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="BQ3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR3">
         <v>2</v>
@@ -1103,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="CC3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CD3">
         <v>2</v>
@@ -1112,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="CN3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP3">
         <v>2</v>
@@ -1123,88 +1117,88 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AD4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF4">
         <v>1</v>
       </c>
       <c r="AI4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ4">
         <v>1</v>
       </c>
       <c r="AK4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AN4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA4">
         <v>1</v>
       </c>
       <c r="BD4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BR4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BS4">
         <v>1</v>
       </c>
       <c r="BT4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BW4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CL4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CM4">
         <v>1</v>
       </c>
       <c r="CN4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
@@ -1310,10 +1304,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1322,43 +1316,43 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB6">
         <v>2</v>
       </c>
       <c r="AE6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB6">
         <v>3</v>
@@ -1369,29 +1363,26 @@
       <c r="BE6">
         <v>1</v>
       </c>
-      <c r="BF6">
-        <v>1</v>
-      </c>
       <c r="BR6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BT6">
         <v>3</v>
       </c>
       <c r="BW6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ6">
         <v>1</v>
       </c>
       <c r="CB6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CD6">
         <v>2</v>
       </c>
       <c r="CL6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CP6">
         <v>2</v>
@@ -1408,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -1420,41 +1411,41 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="W7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB7">
         <v>1</v>
       </c>
       <c r="AC7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD7">
         <v>2</v>
       </c>
       <c r="AO7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AR7">
         <v>2</v>
       </c>
       <c r="AV7">
+        <v>6</v>
+      </c>
+      <c r="BA7">
+        <v>2</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>2</v>
+      </c>
+      <c r="BI7">
         <v>8</v>
       </c>
-      <c r="BA7">
-        <v>2</v>
-      </c>
-      <c r="BB7">
-        <v>1</v>
-      </c>
-      <c r="BH7">
-        <v>2</v>
-      </c>
-      <c r="BI7">
-        <v>11</v>
-      </c>
       <c r="BL7">
         <v>2</v>
       </c>
@@ -1462,40 +1453,40 @@
         <v>1</v>
       </c>
       <c r="BS7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BZ7">
         <v>1</v>
       </c>
       <c r="CA7">
+        <v>6</v>
+      </c>
+      <c r="CB7">
+        <v>1</v>
+      </c>
+      <c r="CC7">
+        <v>2</v>
+      </c>
+      <c r="CD7">
+        <v>1</v>
+      </c>
+      <c r="CF7">
+        <v>5</v>
+      </c>
+      <c r="CG7">
         <v>8</v>
       </c>
-      <c r="CB7">
-        <v>1</v>
-      </c>
-      <c r="CC7">
-        <v>2</v>
-      </c>
-      <c r="CD7">
-        <v>1</v>
-      </c>
-      <c r="CF7">
-        <v>6</v>
-      </c>
-      <c r="CG7">
-        <v>11</v>
-      </c>
       <c r="CI7">
         <v>2</v>
       </c>
       <c r="CK7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="CP7">
         <v>1</v>
       </c>
       <c r="CQ7">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
@@ -1677,11 +1668,8 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="J10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1690,21 +1678,18 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <v>1</v>
       </c>
       <c r="AH10">
-        <v>2</v>
-      </c>
-      <c r="AI10">
         <v>1</v>
       </c>
       <c r="AK10">
@@ -1714,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO10">
         <v>2</v>
@@ -1723,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="AU10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -1744,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="BQ10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU10">
         <v>2</v>
@@ -1765,13 +1750,13 @@
         <v>1</v>
       </c>
       <c r="CC10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CH10">
         <v>2</v>
       </c>
       <c r="CN10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CO10">
         <v>2</v>
@@ -2022,10 +2007,10 @@
         <v>2</v>
       </c>
       <c r="N14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14">
         <v>2</v>
@@ -2034,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="AA14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD14">
         <v>2</v>
@@ -2052,7 +2037,7 @@
         <v>4</v>
       </c>
       <c r="AW14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA14">
         <v>2</v>
@@ -2067,28 +2052,28 @@
         <v>2</v>
       </c>
       <c r="BS14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY14">
         <v>2</v>
       </c>
       <c r="CC14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CF14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI14">
         <v>2</v>
       </c>
       <c r="CM14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.25">
@@ -2265,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2277,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>2</v>
@@ -2292,22 +2277,22 @@
         <v>2</v>
       </c>
       <c r="AE17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP17">
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB17">
         <v>4</v>
@@ -2318,9 +2303,6 @@
       <c r="BE17">
         <v>2</v>
       </c>
-      <c r="BF17">
-        <v>1</v>
-      </c>
       <c r="BJ17">
         <v>2</v>
       </c>
@@ -2328,13 +2310,13 @@
         <v>2</v>
       </c>
       <c r="BR17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BZ17">
         <v>1</v>
       </c>
       <c r="CB17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CC17">
         <v>2</v>
@@ -2351,16 +2333,16 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O18">
         <v>2</v>
@@ -2369,19 +2351,19 @@
         <v>2</v>
       </c>
       <c r="R18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z18">
         <v>2</v>
       </c>
       <c r="AA18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB18">
         <v>2</v>
@@ -2390,16 +2372,16 @@
         <v>3</v>
       </c>
       <c r="AH18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK18">
         <v>2</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>2</v>
@@ -2408,10 +2390,10 @@
         <v>2</v>
       </c>
       <c r="AU18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ18">
         <v>1</v>
@@ -2435,37 +2417,37 @@
         <v>2</v>
       </c>
       <c r="BQ18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BS18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BV18">
         <v>2</v>
       </c>
       <c r="BX18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="CD18">
         <v>1</v>
       </c>
       <c r="CF18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH18">
         <v>2</v>
       </c>
       <c r="CM18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CN18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CP18">
         <v>2</v>
@@ -2479,7 +2461,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2488,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U19">
         <v>3</v>
@@ -2497,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="X19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z19">
         <v>2</v>
@@ -2506,31 +2488,31 @@
         <v>2</v>
       </c>
       <c r="AD19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ19">
         <v>2</v>
       </c>
       <c r="BD19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE19">
         <v>2</v>
       </c>
       <c r="BQ19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BR19">
         <v>2</v>
@@ -2542,39 +2524,36 @@
         <v>2</v>
       </c>
       <c r="CN19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
       <c r="D20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AA20">
         <v>1</v>
@@ -2583,34 +2562,34 @@
         <v>1</v>
       </c>
       <c r="AH20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ20">
         <v>1</v>
       </c>
       <c r="AK20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AS20">
         <v>1</v>
       </c>
       <c r="AU20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BA20">
         <v>1</v>
@@ -2619,31 +2598,31 @@
         <v>1</v>
       </c>
       <c r="BQ20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BS20">
         <v>1</v>
       </c>
       <c r="BT20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BW20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CM20">
         <v>1</v>
       </c>
       <c r="CN20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:95" x14ac:dyDescent="0.25">
@@ -2651,31 +2630,31 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S21">
         <v>3</v>
       </c>
       <c r="T21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="W21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X21">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AC21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD21">
         <v>3</v>
@@ -2684,67 +2663,67 @@
         <v>3</v>
       </c>
       <c r="AK21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AN21">
         <v>1</v>
       </c>
       <c r="AO21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AP21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AS21">
         <v>3</v>
       </c>
       <c r="AV21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW21">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD21">
         <v>3</v>
       </c>
       <c r="BI21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ21">
         <v>3</v>
       </c>
       <c r="BR21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BS21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BT21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BW21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CF21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CK21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="CL21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CN21">
         <v>3</v>
       </c>
       <c r="CQ21">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:95" x14ac:dyDescent="0.25">
@@ -2820,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -2832,71 +2811,71 @@
         <v>2</v>
       </c>
       <c r="U23">
+        <v>7</v>
+      </c>
+      <c r="W23">
+        <v>12</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>6</v>
+      </c>
+      <c r="AD23">
+        <v>2</v>
+      </c>
+      <c r="AG23">
+        <v>2</v>
+      </c>
+      <c r="AO23">
+        <v>5</v>
+      </c>
+      <c r="AR23">
+        <v>2</v>
+      </c>
+      <c r="AT23">
+        <v>2</v>
+      </c>
+      <c r="AV23">
+        <v>6</v>
+      </c>
+      <c r="AW23">
+        <v>2</v>
+      </c>
+      <c r="BA23">
+        <v>2</v>
+      </c>
+      <c r="BG23">
+        <v>1</v>
+      </c>
+      <c r="BH23">
+        <v>2</v>
+      </c>
+      <c r="BI23">
+        <v>8</v>
+      </c>
+      <c r="BL23">
+        <v>2</v>
+      </c>
+      <c r="BS23">
+        <v>8</v>
+      </c>
+      <c r="BZ23">
+        <v>2</v>
+      </c>
+      <c r="CA23">
+        <v>7</v>
+      </c>
+      <c r="CC23">
+        <v>2</v>
+      </c>
+      <c r="CF23">
+        <v>5</v>
+      </c>
+      <c r="CG23">
         <v>10</v>
       </c>
-      <c r="W23">
-        <v>15</v>
-      </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AC23">
-        <v>7</v>
-      </c>
-      <c r="AD23">
-        <v>2</v>
-      </c>
-      <c r="AG23">
-        <v>2</v>
-      </c>
-      <c r="AO23">
-        <v>8</v>
-      </c>
-      <c r="AR23">
-        <v>2</v>
-      </c>
-      <c r="AT23">
-        <v>2</v>
-      </c>
-      <c r="AV23">
-        <v>7</v>
-      </c>
-      <c r="AW23">
-        <v>2</v>
-      </c>
-      <c r="BA23">
-        <v>2</v>
-      </c>
-      <c r="BG23">
-        <v>1</v>
-      </c>
-      <c r="BH23">
-        <v>2</v>
-      </c>
-      <c r="BI23">
-        <v>10</v>
-      </c>
-      <c r="BL23">
-        <v>2</v>
-      </c>
-      <c r="BS23">
-        <v>11</v>
-      </c>
-      <c r="BZ23">
-        <v>2</v>
-      </c>
-      <c r="CA23">
-        <v>8</v>
-      </c>
-      <c r="CC23">
-        <v>2</v>
-      </c>
-      <c r="CF23">
-        <v>6</v>
-      </c>
-      <c r="CG23">
-        <v>12</v>
-      </c>
       <c r="CH23">
         <v>1</v>
       </c>
@@ -2904,10 +2883,10 @@
         <v>2</v>
       </c>
       <c r="CK23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="CQ23">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:95" x14ac:dyDescent="0.25">
@@ -2915,85 +2894,85 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T24">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U24">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X24">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AD24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AN24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AS24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW24">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BD24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE24">
         <v>2</v>
       </c>
       <c r="BQ24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BR24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BT24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BW24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CL24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CN24">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:95" x14ac:dyDescent="0.25">
@@ -3236,10 +3215,10 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S27">
         <v>2</v>
@@ -3254,7 +3233,7 @@
         <v>2</v>
       </c>
       <c r="AA27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3275,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="AW27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ27">
         <v>2</v>
@@ -3293,25 +3272,25 @@
         <v>2</v>
       </c>
       <c r="BS27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BX27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD27">
         <v>2</v>
       </c>
       <c r="CF27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CM27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:95" x14ac:dyDescent="0.25">
@@ -3387,7 +3366,7 @@
         <v>28</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -3399,16 +3378,16 @@
         <v>3</v>
       </c>
       <c r="U29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y29">
         <v>3</v>
       </c>
       <c r="AC29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE29">
         <v>2</v>
@@ -3420,7 +3399,7 @@
         <v>3</v>
       </c>
       <c r="AO29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ29">
         <v>2</v>
@@ -3441,7 +3420,7 @@
         <v>2</v>
       </c>
       <c r="BI29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ29">
         <v>3</v>
@@ -3456,7 +3435,7 @@
         <v>3</v>
       </c>
       <c r="BS29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BW29">
         <v>3</v>
@@ -3468,16 +3447,16 @@
         <v>2</v>
       </c>
       <c r="CF29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CG29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CJ29">
         <v>2</v>
       </c>
       <c r="CK29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CL29">
         <v>2</v>
@@ -3494,7 +3473,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3515,7 +3494,7 @@
         <v>3</v>
       </c>
       <c r="S30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U30">
         <v>3</v>
@@ -3524,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="X30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z30">
         <v>2</v>
@@ -3533,16 +3512,16 @@
         <v>2</v>
       </c>
       <c r="AD30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK30">
         <v>1</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO30">
         <v>1</v>
@@ -3554,10 +3533,10 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ30">
         <v>1</v>
@@ -3566,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="BD30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH30">
         <v>2</v>
@@ -3587,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="BQ30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BV30">
         <v>1</v>
@@ -3608,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="CN30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CP30">
         <v>1</v>
@@ -3625,7 +3604,7 @@
         <v>5</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>7</v>
@@ -3637,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y31">
         <v>7</v>
@@ -3646,13 +3625,13 @@
         <v>2</v>
       </c>
       <c r="AE31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH31">
         <v>7</v>
       </c>
       <c r="AL31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM31">
         <v>3</v>
@@ -3661,16 +3640,16 @@
         <v>7</v>
       </c>
       <c r="AT31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU31">
         <v>6</v>
       </c>
       <c r="AV31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY31">
         <v>6</v>
@@ -3685,7 +3664,7 @@
         <v>2</v>
       </c>
       <c r="BF31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ31">
         <v>7</v>
@@ -3703,13 +3682,13 @@
         <v>4</v>
       </c>
       <c r="BR31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW31">
         <v>7</v>
       </c>
       <c r="CB31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CE31">
         <v>6</v>
@@ -3862,13 +3841,13 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>5</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>7</v>
@@ -3880,13 +3859,13 @@
         <v>4</v>
       </c>
       <c r="R34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y34">
         <v>8</v>
@@ -3898,22 +3877,22 @@
         <v>7</v>
       </c>
       <c r="AH34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM34">
         <v>4</v>
       </c>
       <c r="AN34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>7</v>
       </c>
       <c r="AU34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY34">
         <v>6</v>
@@ -3943,13 +3922,13 @@
         <v>4</v>
       </c>
       <c r="BQ34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BW34">
         <v>8</v>
       </c>
       <c r="CC34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CE34">
         <v>7</v>
@@ -3964,7 +3943,7 @@
         <v>6</v>
       </c>
       <c r="CN34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:95" x14ac:dyDescent="0.25">
@@ -3972,46 +3951,43 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
       <c r="R35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U35">
         <v>3</v>
       </c>
       <c r="X35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA35">
         <v>1</v>
       </c>
       <c r="AD35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF35">
         <v>1</v>
       </c>
       <c r="AH35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ35">
         <v>1</v>
@@ -4020,40 +3996,40 @@
         <v>1</v>
       </c>
       <c r="AN35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA35">
         <v>1</v>
       </c>
       <c r="BD35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE35">
         <v>1</v>
       </c>
       <c r="BQ35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BS35">
         <v>1</v>
       </c>
       <c r="CC35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CM35">
         <v>1</v>
       </c>
       <c r="CN35">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:95" x14ac:dyDescent="0.25">
@@ -4141,10 +4117,10 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -4156,13 +4132,13 @@
         <v>2</v>
       </c>
       <c r="T37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Z37">
         <v>1</v>
@@ -4171,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="AK37">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -4180,13 +4156,13 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AR37">
         <v>1</v>
       </c>
       <c r="AW37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AZ37">
         <v>1</v>
@@ -4207,16 +4183,16 @@
         <v>3</v>
       </c>
       <c r="BR37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BT37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BV37">
         <v>3</v>
       </c>
       <c r="BW37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA37">
         <v>1</v>
@@ -4228,7 +4204,7 @@
         <v>2</v>
       </c>
       <c r="CL37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CM37">
         <v>2</v>
@@ -4248,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4257,7 +4233,7 @@
         <v>2</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -4269,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="AE38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF38">
         <v>3</v>
@@ -4281,7 +4257,7 @@
         <v>3</v>
       </c>
       <c r="AL38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR38">
         <v>2</v>
@@ -4290,13 +4266,13 @@
         <v>1</v>
       </c>
       <c r="AT38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA38">
         <v>1</v>
@@ -4307,9 +4283,6 @@
       <c r="BE38">
         <v>2</v>
       </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
       <c r="BH38">
         <v>2</v>
       </c>
@@ -4317,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="BR38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS38">
         <v>1</v>
@@ -4326,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="CB38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CM38">
         <v>1</v>
@@ -4444,10 +4417,10 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4456,16 +4429,16 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -4474,7 +4447,7 @@
         <v>2</v>
       </c>
       <c r="X40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z40">
         <v>2</v>
@@ -4483,37 +4456,37 @@
         <v>2</v>
       </c>
       <c r="AD40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ40">
         <v>2</v>
       </c>
       <c r="BD40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE40">
         <v>4</v>
       </c>
       <c r="BQ40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BR40">
         <v>2</v>
@@ -4522,13 +4495,13 @@
         <v>1</v>
       </c>
       <c r="CC40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CD40">
         <v>2</v>
       </c>
       <c r="CN40">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:95" x14ac:dyDescent="0.25">
@@ -4536,100 +4509,100 @@
         <v>40</v>
       </c>
       <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>5</v>
+      </c>
+      <c r="W41">
+        <v>5</v>
+      </c>
+      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>2</v>
+      </c>
+      <c r="AO41">
         <v>9</v>
       </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="U41">
+      <c r="AV41">
+        <v>3</v>
+      </c>
+      <c r="AX41">
+        <v>1</v>
+      </c>
+      <c r="AZ41">
+        <v>1</v>
+      </c>
+      <c r="BG41">
+        <v>2</v>
+      </c>
+      <c r="BI41">
+        <v>7</v>
+      </c>
+      <c r="BM41">
+        <v>2</v>
+      </c>
+      <c r="BS41">
+        <v>5</v>
+      </c>
+      <c r="BU41">
+        <v>2</v>
+      </c>
+      <c r="BV41">
+        <v>2</v>
+      </c>
+      <c r="BY41">
+        <v>2</v>
+      </c>
+      <c r="BZ41">
+        <v>2</v>
+      </c>
+      <c r="CA41">
+        <v>3</v>
+      </c>
+      <c r="CB41">
+        <v>1</v>
+      </c>
+      <c r="CD41">
+        <v>1</v>
+      </c>
+      <c r="CF41">
+        <v>2</v>
+      </c>
+      <c r="CG41">
+        <v>5</v>
+      </c>
+      <c r="CH41">
+        <v>4</v>
+      </c>
+      <c r="CK41">
+        <v>5</v>
+      </c>
+      <c r="CM41">
+        <v>2</v>
+      </c>
+      <c r="CO41">
+        <v>2</v>
+      </c>
+      <c r="CP41">
+        <v>3</v>
+      </c>
+      <c r="CQ41">
         <v>9</v>
-      </c>
-      <c r="W41">
-        <v>8</v>
-      </c>
-      <c r="AC41">
-        <v>4</v>
-      </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
-      <c r="AK41">
-        <v>2</v>
-      </c>
-      <c r="AO41">
-        <v>13</v>
-      </c>
-      <c r="AV41">
-        <v>5</v>
-      </c>
-      <c r="AX41">
-        <v>1</v>
-      </c>
-      <c r="AZ41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>2</v>
-      </c>
-      <c r="BI41">
-        <v>10</v>
-      </c>
-      <c r="BM41">
-        <v>2</v>
-      </c>
-      <c r="BS41">
-        <v>9</v>
-      </c>
-      <c r="BU41">
-        <v>2</v>
-      </c>
-      <c r="BV41">
-        <v>2</v>
-      </c>
-      <c r="BY41">
-        <v>2</v>
-      </c>
-      <c r="BZ41">
-        <v>2</v>
-      </c>
-      <c r="CA41">
-        <v>5</v>
-      </c>
-      <c r="CB41">
-        <v>1</v>
-      </c>
-      <c r="CD41">
-        <v>1</v>
-      </c>
-      <c r="CF41">
-        <v>3</v>
-      </c>
-      <c r="CG41">
-        <v>8</v>
-      </c>
-      <c r="CH41">
-        <v>4</v>
-      </c>
-      <c r="CK41">
-        <v>9</v>
-      </c>
-      <c r="CM41">
-        <v>2</v>
-      </c>
-      <c r="CO41">
-        <v>2</v>
-      </c>
-      <c r="CP41">
-        <v>3</v>
-      </c>
-      <c r="CQ41">
-        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:95" x14ac:dyDescent="0.25">
@@ -4637,10 +4610,10 @@
         <v>41</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -4655,13 +4628,13 @@
         <v>2</v>
       </c>
       <c r="T42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z42">
         <v>2</v>
@@ -4673,13 +4646,13 @@
         <v>2</v>
       </c>
       <c r="AK42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AP42">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BJ42">
         <v>2</v>
@@ -4688,19 +4661,19 @@
         <v>2</v>
       </c>
       <c r="BR42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BT42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BW42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC42">
         <v>2</v>
       </c>
       <c r="CL42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:95" x14ac:dyDescent="0.25">
@@ -4895,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4904,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="S45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T45">
         <v>1</v>
@@ -4913,19 +4886,19 @@
         <v>3</v>
       </c>
       <c r="X45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA45">
         <v>1</v>
       </c>
       <c r="AD45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF45">
         <v>1</v>
       </c>
       <c r="AI45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ45">
         <v>2</v>
@@ -4934,16 +4907,16 @@
         <v>1</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX45">
         <v>1</v>
@@ -4952,13 +4925,13 @@
         <v>1</v>
       </c>
       <c r="BD45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI45">
         <v>1</v>
       </c>
       <c r="BQ45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BS45">
         <v>1</v>
@@ -4970,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="CN45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CO45">
         <v>1</v>
@@ -4981,13 +4954,13 @@
         <v>45</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>3</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W46">
         <v>2</v>
@@ -4996,25 +4969,25 @@
         <v>2</v>
       </c>
       <c r="AE46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG46">
         <v>3</v>
       </c>
       <c r="AL46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW46">
         <v>3</v>
       </c>
       <c r="AX46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB46">
         <v>2</v>
@@ -5022,14 +4995,11 @@
       <c r="BE46">
         <v>2</v>
       </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
       <c r="BG46">
         <v>2</v>
       </c>
       <c r="BR46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ46">
         <v>2</v>
@@ -5038,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="CB46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CG46">
         <v>3</v>
@@ -5061,13 +5031,13 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47">
         <v>6</v>
@@ -5079,13 +5049,13 @@
         <v>3</v>
       </c>
       <c r="R47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y47">
         <v>7</v>
@@ -5100,23 +5070,23 @@
         <v>1</v>
       </c>
       <c r="AH47">
+        <v>8</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
+        <v>2</v>
+      </c>
+      <c r="AN47">
+        <v>2</v>
+      </c>
+      <c r="AQ47">
+        <v>6</v>
+      </c>
+      <c r="AU47">
         <v>9</v>
       </c>
-      <c r="AI47">
-        <v>2</v>
-      </c>
-      <c r="AM47">
-        <v>2</v>
-      </c>
-      <c r="AN47">
-        <v>3</v>
-      </c>
-      <c r="AQ47">
-        <v>6</v>
-      </c>
-      <c r="AU47">
-        <v>10</v>
-      </c>
       <c r="AX47">
         <v>1</v>
       </c>
@@ -5151,7 +5121,7 @@
         <v>4</v>
       </c>
       <c r="BQ47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU47">
         <v>1</v>
@@ -5160,7 +5130,7 @@
         <v>6</v>
       </c>
       <c r="CC47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CE47">
         <v>6</v>
@@ -5178,7 +5148,7 @@
         <v>5</v>
       </c>
       <c r="CN47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CO47">
         <v>1</v>
@@ -5189,40 +5159,40 @@
         <v>47</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
+      <c r="U48">
+        <v>5</v>
+      </c>
+      <c r="W48">
+        <v>6</v>
+      </c>
+      <c r="AC48">
+        <v>5</v>
+      </c>
+      <c r="AE48">
+        <v>2</v>
+      </c>
+      <c r="AL48">
+        <v>2</v>
+      </c>
+      <c r="AO48">
+        <v>3</v>
+      </c>
+      <c r="AT48">
+        <v>2</v>
+      </c>
+      <c r="AV48">
         <v>8</v>
       </c>
-      <c r="Q48">
-        <v>3</v>
-      </c>
-      <c r="U48">
-        <v>7</v>
-      </c>
-      <c r="W48">
-        <v>7</v>
-      </c>
-      <c r="AC48">
-        <v>5</v>
-      </c>
-      <c r="AE48">
-        <v>3</v>
-      </c>
-      <c r="AL48">
-        <v>3</v>
-      </c>
-      <c r="AO48">
-        <v>5</v>
-      </c>
-      <c r="AT48">
-        <v>3</v>
-      </c>
-      <c r="AV48">
-        <v>11</v>
-      </c>
       <c r="AX48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB48">
         <v>2</v>
@@ -5230,35 +5200,32 @@
       <c r="BE48">
         <v>2</v>
       </c>
-      <c r="BF48">
-        <v>1</v>
-      </c>
       <c r="BI48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BR48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CA48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CB48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CF48">
         <v>4</v>
       </c>
       <c r="CG48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CK48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CQ48">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:95" x14ac:dyDescent="0.25">
@@ -5266,70 +5233,70 @@
         <v>48</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K49">
         <v>3</v>
       </c>
       <c r="N49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="W49">
         <v>2</v>
       </c>
       <c r="X49">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Z49">
         <v>2</v>
       </c>
       <c r="AA49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG49">
         <v>3</v>
       </c>
       <c r="AI49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AS49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT49">
         <v>3</v>
       </c>
       <c r="AW49">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="BD49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG49">
         <v>2</v>
@@ -5338,22 +5305,22 @@
         <v>2</v>
       </c>
       <c r="BQ49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BR49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BS49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BW49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BX49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZ49">
         <v>2</v>
@@ -5362,13 +5329,13 @@
         <v>1</v>
       </c>
       <c r="CC49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CH49">
         <v>1</v>
@@ -5380,13 +5347,13 @@
         <v>1</v>
       </c>
       <c r="CL49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CM49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CN49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:95" x14ac:dyDescent="0.25">
@@ -5400,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -5412,13 +5379,13 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y50">
         <v>1</v>
       </c>
       <c r="AE50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG50">
         <v>1</v>
@@ -5427,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="AL50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO50">
         <v>1</v>
@@ -5439,16 +5406,16 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1</v>
       </c>
       <c r="AV50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB50">
         <v>1</v>
@@ -5459,9 +5426,6 @@
       <c r="BE50">
         <v>1</v>
       </c>
-      <c r="BF50">
-        <v>1</v>
-      </c>
       <c r="BG50">
         <v>1</v>
       </c>
@@ -5472,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="BR50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU50">
         <v>2</v>
@@ -5484,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="CB50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CG50">
         <v>1</v>
@@ -5832,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -5847,13 +5811,13 @@
         <v>5</v>
       </c>
       <c r="S56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U56">
         <v>3</v>
       </c>
       <c r="X56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y56">
         <v>5</v>
@@ -5862,7 +5826,7 @@
         <v>3</v>
       </c>
       <c r="AD56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE56">
         <v>3</v>
@@ -5874,25 +5838,25 @@
         <v>4</v>
       </c>
       <c r="AI56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM56">
         <v>4</v>
       </c>
       <c r="AN56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>3</v>
       </c>
       <c r="AS56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU56">
         <v>3</v>
       </c>
       <c r="AW56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX56">
         <v>1</v>
@@ -5901,7 +5865,7 @@
         <v>2</v>
       </c>
       <c r="BD56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF56">
         <v>3</v>
@@ -5925,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="BQ56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BU56">
         <v>1</v>
@@ -5949,7 +5913,7 @@
         <v>3</v>
       </c>
       <c r="CN56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CO56">
         <v>1</v>
@@ -6090,9 +6054,6 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
       <c r="L58">
         <v>3</v>
       </c>
@@ -6102,9 +6063,6 @@
       <c r="P58">
         <v>3</v>
       </c>
-      <c r="Q58">
-        <v>1</v>
-      </c>
       <c r="Y58">
         <v>3</v>
       </c>
@@ -6112,32 +6070,20 @@
         <v>2</v>
       </c>
       <c r="AE58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH58">
         <v>3</v>
       </c>
-      <c r="AL58">
-        <v>1</v>
-      </c>
       <c r="AM58">
         <v>3</v>
       </c>
       <c r="AQ58">
         <v>3</v>
       </c>
-      <c r="AT58">
-        <v>1</v>
-      </c>
       <c r="AU58">
         <v>2</v>
       </c>
-      <c r="AV58">
-        <v>1</v>
-      </c>
-      <c r="AX58">
-        <v>1</v>
-      </c>
       <c r="AY58">
         <v>2</v>
       </c>
@@ -6145,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="BF58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ58">
         <v>3</v>
@@ -6162,14 +6108,8 @@
       <c r="BP58">
         <v>1</v>
       </c>
-      <c r="BR58">
-        <v>1</v>
-      </c>
       <c r="BW58">
         <v>3</v>
-      </c>
-      <c r="CB58">
-        <v>1</v>
       </c>
       <c r="CE58">
         <v>2</v>
@@ -6352,70 +6292,70 @@
         <v>1</v>
       </c>
       <c r="G61">
+        <v>8</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="U61">
+        <v>7</v>
+      </c>
+      <c r="W61">
+        <v>8</v>
+      </c>
+      <c r="AC61">
+        <v>6</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>7</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AS61">
+        <v>1</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AX61">
+        <v>1</v>
+      </c>
+      <c r="AZ61">
+        <v>1</v>
+      </c>
+      <c r="BI61">
         <v>11</v>
       </c>
-      <c r="R61">
-        <v>2</v>
-      </c>
-      <c r="U61">
-        <v>10</v>
-      </c>
-      <c r="W61">
-        <v>10</v>
-      </c>
-      <c r="AC61">
-        <v>7</v>
-      </c>
-      <c r="AD61">
-        <v>1</v>
-      </c>
-      <c r="AJ61">
-        <v>1</v>
-      </c>
-      <c r="AK61">
-        <v>2</v>
-      </c>
-      <c r="AO61">
-        <v>10</v>
-      </c>
-      <c r="AQ61">
-        <v>1</v>
-      </c>
-      <c r="AS61">
-        <v>1</v>
-      </c>
-      <c r="AV61">
-        <v>7</v>
-      </c>
-      <c r="AX61">
-        <v>1</v>
-      </c>
-      <c r="AZ61">
-        <v>1</v>
-      </c>
-      <c r="BI61">
-        <v>14</v>
-      </c>
       <c r="BM61">
         <v>2</v>
       </c>
       <c r="BS61">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BV61">
         <v>2</v>
       </c>
       <c r="CA61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CD61">
         <v>1</v>
       </c>
       <c r="CF61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CG61">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="CH61">
         <v>2</v>
@@ -6424,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="CK61">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="CM61">
         <v>2</v>
@@ -6436,7 +6376,7 @@
         <v>2</v>
       </c>
       <c r="CQ61">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:95" x14ac:dyDescent="0.25">
@@ -7091,64 +7031,64 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U69">
         <v>3</v>
       </c>
       <c r="X69">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE69">
         <v>2</v>
       </c>
       <c r="BQ69">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CC69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CN69">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:95" x14ac:dyDescent="0.25">
@@ -7159,10 +7099,10 @@
         <v>2</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -7174,97 +7114,94 @@
         <v>2</v>
       </c>
       <c r="Q70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S70">
         <v>2</v>
       </c>
       <c r="T70">
+        <v>3</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>2</v>
+      </c>
+      <c r="X70">
+        <v>3</v>
+      </c>
+      <c r="Z70">
+        <v>2</v>
+      </c>
+      <c r="AA70">
+        <v>2</v>
+      </c>
+      <c r="AB70">
+        <v>2</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
+      </c>
+      <c r="AK70">
+        <v>3</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AP70">
+        <v>3</v>
+      </c>
+      <c r="AT70">
+        <v>1</v>
+      </c>
+      <c r="AV70">
+        <v>1</v>
+      </c>
+      <c r="AW70">
+        <v>3</v>
+      </c>
+      <c r="AX70">
+        <v>1</v>
+      </c>
+      <c r="AZ70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>3</v>
+      </c>
+      <c r="BC70">
+        <v>1</v>
+      </c>
+      <c r="BE70">
+        <v>3</v>
+      </c>
+      <c r="BR70">
         <v>8</v>
       </c>
-      <c r="U70">
-        <v>8</v>
-      </c>
-      <c r="V70">
-        <v>2</v>
-      </c>
-      <c r="X70">
-        <v>8</v>
-      </c>
-      <c r="Z70">
-        <v>2</v>
-      </c>
-      <c r="AA70">
-        <v>2</v>
-      </c>
-      <c r="AB70">
-        <v>2</v>
-      </c>
-      <c r="AE70">
-        <v>2</v>
-      </c>
-      <c r="AK70">
-        <v>8</v>
-      </c>
-      <c r="AL70">
-        <v>2</v>
-      </c>
-      <c r="AN70">
-        <v>2</v>
-      </c>
-      <c r="AP70">
-        <v>7</v>
-      </c>
-      <c r="AT70">
-        <v>2</v>
-      </c>
-      <c r="AV70">
-        <v>2</v>
-      </c>
-      <c r="AW70">
-        <v>8</v>
-      </c>
-      <c r="AX70">
-        <v>2</v>
-      </c>
-      <c r="AZ70">
-        <v>2</v>
-      </c>
-      <c r="BB70">
-        <v>3</v>
-      </c>
-      <c r="BC70">
-        <v>1</v>
-      </c>
-      <c r="BE70">
-        <v>3</v>
-      </c>
-      <c r="BF70">
-        <v>1</v>
-      </c>
-      <c r="BR70">
-        <v>14</v>
-      </c>
       <c r="BS70">
         <v>1</v>
       </c>
       <c r="BT70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BW70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ70">
         <v>1</v>
       </c>
       <c r="CB70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CD70">
         <v>4</v>
       </c>
       <c r="CL70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CP70">
         <v>2</v>
@@ -7278,115 +7215,115 @@
         <v>1</v>
       </c>
       <c r="G71">
+        <v>8</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="R71">
+        <v>4</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>7</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>8</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <v>6</v>
+      </c>
+      <c r="AC71">
+        <v>6</v>
+      </c>
+      <c r="AF71">
+        <v>1</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
+      </c>
+      <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>5</v>
+      </c>
+      <c r="AS71">
+        <v>1</v>
+      </c>
+      <c r="AV71">
+        <v>6</v>
+      </c>
+      <c r="AW71">
+        <v>4</v>
+      </c>
+      <c r="AZ71">
+        <v>1</v>
+      </c>
+      <c r="BA71">
+        <v>1</v>
+      </c>
+      <c r="BE71">
+        <v>1</v>
+      </c>
+      <c r="BI71">
+        <v>8</v>
+      </c>
+      <c r="BP71">
+        <v>2</v>
+      </c>
+      <c r="BR71">
+        <v>1</v>
+      </c>
+      <c r="BS71">
+        <v>14</v>
+      </c>
+      <c r="BX71">
+        <v>4</v>
+      </c>
+      <c r="CA71">
+        <v>6</v>
+      </c>
+      <c r="CC71">
+        <v>4</v>
+      </c>
+      <c r="CD71">
+        <v>1</v>
+      </c>
+      <c r="CF71">
+        <v>9</v>
+      </c>
+      <c r="CG71">
         <v>12</v>
       </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="N71">
-        <v>5</v>
-      </c>
-      <c r="R71">
-        <v>5</v>
-      </c>
-      <c r="S71">
-        <v>1</v>
-      </c>
-      <c r="T71">
-        <v>1</v>
-      </c>
-      <c r="U71">
-        <v>11</v>
-      </c>
-      <c r="V71">
-        <v>1</v>
-      </c>
-      <c r="W71">
-        <v>11</v>
-      </c>
-      <c r="Z71">
-        <v>1</v>
-      </c>
-      <c r="AA71">
-        <v>7</v>
-      </c>
-      <c r="AC71">
-        <v>7</v>
-      </c>
-      <c r="AF71">
-        <v>1</v>
-      </c>
-      <c r="AI71">
-        <v>1</v>
-      </c>
-      <c r="AJ71">
-        <v>1</v>
-      </c>
-      <c r="AL71">
-        <v>1</v>
-      </c>
-      <c r="AN71">
-        <v>1</v>
-      </c>
-      <c r="AO71">
-        <v>9</v>
-      </c>
-      <c r="AS71">
-        <v>1</v>
-      </c>
-      <c r="AV71">
+      <c r="CK71">
         <v>8</v>
       </c>
-      <c r="AW71">
-        <v>5</v>
-      </c>
-      <c r="AZ71">
-        <v>1</v>
-      </c>
-      <c r="BA71">
-        <v>1</v>
-      </c>
-      <c r="BE71">
-        <v>1</v>
-      </c>
-      <c r="BI71">
-        <v>11</v>
-      </c>
-      <c r="BP71">
-        <v>2</v>
-      </c>
-      <c r="BR71">
-        <v>1</v>
-      </c>
-      <c r="BS71">
-        <v>19</v>
-      </c>
-      <c r="BX71">
-        <v>5</v>
-      </c>
-      <c r="CA71">
-        <v>8</v>
-      </c>
-      <c r="CC71">
-        <v>5</v>
-      </c>
-      <c r="CD71">
-        <v>1</v>
-      </c>
-      <c r="CF71">
-        <v>11</v>
-      </c>
-      <c r="CG71">
-        <v>16</v>
-      </c>
-      <c r="CK71">
-        <v>12</v>
-      </c>
       <c r="CM71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CQ71">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:95" x14ac:dyDescent="0.25">
@@ -7394,34 +7331,34 @@
         <v>71</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72">
         <v>3</v>
       </c>
       <c r="T72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AP72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BR72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BT72">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BW72">
         <v>3</v>
@@ -7577,13 +7514,13 @@
         <v>74</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E75">
         <v>5</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L75">
         <v>7</v>
@@ -7595,13 +7532,13 @@
         <v>4</v>
       </c>
       <c r="T75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y75">
         <v>8</v>
@@ -7616,13 +7553,13 @@
         <v>8</v>
       </c>
       <c r="AK75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM75">
         <v>4</v>
       </c>
       <c r="AP75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ75">
         <v>7</v>
@@ -7631,7 +7568,7 @@
         <v>6</v>
       </c>
       <c r="AW75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY75">
         <v>6</v>
@@ -7658,13 +7595,13 @@
         <v>4</v>
       </c>
       <c r="BR75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BT75">
         <v>3</v>
       </c>
       <c r="BW75">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="CE75">
         <v>7</v>
@@ -7676,7 +7613,7 @@
         <v>7</v>
       </c>
       <c r="CL75">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:95" x14ac:dyDescent="0.25">
@@ -7684,37 +7621,37 @@
         <v>75</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP76">
         <v>2</v>
       </c>
       <c r="BS76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CM76">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:95" x14ac:dyDescent="0.25">
@@ -7885,97 +7822,97 @@
         <v>78</v>
       </c>
       <c r="G79">
+        <v>6</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>5</v>
+      </c>
+      <c r="W79">
+        <v>7</v>
+      </c>
+      <c r="Z79">
+        <v>2</v>
+      </c>
+      <c r="AC79">
+        <v>5</v>
+      </c>
+      <c r="AG79">
+        <v>1</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>3</v>
+      </c>
+      <c r="AR79">
+        <v>1</v>
+      </c>
+      <c r="AT79">
+        <v>1</v>
+      </c>
+      <c r="AV79">
+        <v>6</v>
+      </c>
+      <c r="AW79">
+        <v>1</v>
+      </c>
+      <c r="BE79">
+        <v>1</v>
+      </c>
+      <c r="BG79">
+        <v>1</v>
+      </c>
+      <c r="BH79">
+        <v>1</v>
+      </c>
+      <c r="BI79">
+        <v>6</v>
+      </c>
+      <c r="BK79">
+        <v>1</v>
+      </c>
+      <c r="BM79">
+        <v>1</v>
+      </c>
+      <c r="BS79">
+        <v>6</v>
+      </c>
+      <c r="BV79">
+        <v>1</v>
+      </c>
+      <c r="BZ79">
+        <v>1</v>
+      </c>
+      <c r="CA79">
         <v>8</v>
       </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="U79">
-        <v>7</v>
-      </c>
-      <c r="W79">
-        <v>8</v>
-      </c>
-      <c r="Z79">
-        <v>2</v>
-      </c>
-      <c r="AC79">
-        <v>5</v>
-      </c>
-      <c r="AG79">
-        <v>1</v>
-      </c>
-      <c r="AK79">
-        <v>1</v>
-      </c>
-      <c r="AM79">
-        <v>1</v>
-      </c>
-      <c r="AO79">
-        <v>5</v>
-      </c>
-      <c r="AR79">
-        <v>1</v>
-      </c>
-      <c r="AT79">
-        <v>1</v>
-      </c>
-      <c r="AV79">
-        <v>8</v>
-      </c>
-      <c r="AW79">
-        <v>1</v>
-      </c>
-      <c r="BE79">
-        <v>1</v>
-      </c>
-      <c r="BG79">
-        <v>1</v>
-      </c>
-      <c r="BH79">
-        <v>1</v>
-      </c>
-      <c r="BI79">
-        <v>7</v>
-      </c>
-      <c r="BK79">
-        <v>1</v>
-      </c>
-      <c r="BM79">
-        <v>1</v>
-      </c>
-      <c r="BS79">
-        <v>8</v>
-      </c>
-      <c r="BV79">
-        <v>1</v>
-      </c>
-      <c r="BZ79">
-        <v>1</v>
-      </c>
-      <c r="CA79">
-        <v>10</v>
-      </c>
       <c r="CF79">
         <v>4</v>
       </c>
       <c r="CG79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CH79">
         <v>1</v>
       </c>
       <c r="CK79">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CQ79">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:95" x14ac:dyDescent="0.25">
@@ -7986,7 +7923,7 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -8001,28 +7938,28 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB80">
         <v>1</v>
       </c>
       <c r="AE80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO80">
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB80">
         <v>2</v>
@@ -8030,14 +7967,11 @@
       <c r="BE80">
         <v>1</v>
       </c>
-      <c r="BF80">
-        <v>1</v>
-      </c>
       <c r="BG80">
         <v>1</v>
       </c>
       <c r="BR80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU80">
         <v>1</v>
@@ -8049,7 +7983,7 @@
         <v>2</v>
       </c>
       <c r="CB80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CD80">
         <v>1</v>
@@ -8072,7 +8006,7 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -8081,10 +8015,10 @@
         <v>4</v>
       </c>
       <c r="J81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O81">
         <v>2</v>
@@ -8093,97 +8027,97 @@
         <v>2</v>
       </c>
       <c r="R81">
+        <v>8</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="W81">
+        <v>2</v>
+      </c>
+      <c r="X81">
+        <v>2</v>
+      </c>
+      <c r="Z81">
+        <v>2</v>
+      </c>
+      <c r="AA81">
+        <v>4</v>
+      </c>
+      <c r="AB81">
+        <v>2</v>
+      </c>
+      <c r="AD81">
+        <v>4</v>
+      </c>
+      <c r="AH81">
+        <v>2</v>
+      </c>
+      <c r="AI81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>2</v>
+      </c>
+      <c r="AP81">
+        <v>2</v>
+      </c>
+      <c r="AR81">
+        <v>2</v>
+      </c>
+      <c r="AU81">
+        <v>2</v>
+      </c>
+      <c r="AW81">
+        <v>4</v>
+      </c>
+      <c r="BA81">
+        <v>2</v>
+      </c>
+      <c r="BE81">
+        <v>2</v>
+      </c>
+      <c r="BH81">
+        <v>2</v>
+      </c>
+      <c r="BJ81">
+        <v>2</v>
+      </c>
+      <c r="BK81">
+        <v>2</v>
+      </c>
+      <c r="BL81">
+        <v>2</v>
+      </c>
+      <c r="BP81">
+        <v>2</v>
+      </c>
+      <c r="BQ81">
+        <v>2</v>
+      </c>
+      <c r="BS81">
+        <v>4</v>
+      </c>
+      <c r="BX81">
+        <v>4</v>
+      </c>
+      <c r="CC81">
         <v>10</v>
       </c>
-      <c r="T81">
-        <v>2</v>
-      </c>
-      <c r="W81">
-        <v>2</v>
-      </c>
-      <c r="X81">
-        <v>3</v>
-      </c>
-      <c r="Z81">
-        <v>2</v>
-      </c>
-      <c r="AA81">
-        <v>5</v>
-      </c>
-      <c r="AB81">
-        <v>2</v>
-      </c>
-      <c r="AD81">
-        <v>4</v>
-      </c>
-      <c r="AH81">
-        <v>3</v>
-      </c>
-      <c r="AI81">
-        <v>2</v>
-      </c>
-      <c r="AN81">
-        <v>3</v>
-      </c>
-      <c r="AP81">
-        <v>2</v>
-      </c>
-      <c r="AR81">
-        <v>2</v>
-      </c>
-      <c r="AU81">
-        <v>3</v>
-      </c>
-      <c r="AW81">
-        <v>5</v>
-      </c>
-      <c r="BA81">
-        <v>2</v>
-      </c>
-      <c r="BE81">
-        <v>2</v>
-      </c>
-      <c r="BH81">
-        <v>2</v>
-      </c>
-      <c r="BJ81">
-        <v>2</v>
-      </c>
-      <c r="BK81">
-        <v>2</v>
-      </c>
-      <c r="BL81">
-        <v>2</v>
-      </c>
-      <c r="BP81">
-        <v>2</v>
-      </c>
-      <c r="BQ81">
-        <v>3</v>
-      </c>
-      <c r="BS81">
-        <v>5</v>
-      </c>
-      <c r="BX81">
-        <v>5</v>
-      </c>
-      <c r="CC81">
-        <v>12</v>
-      </c>
       <c r="CF81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI81">
         <v>2</v>
       </c>
       <c r="CM81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CN81">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:95" x14ac:dyDescent="0.25">
@@ -8372,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L84">
         <v>3</v>
@@ -8381,115 +8315,115 @@
         <v>3</v>
       </c>
       <c r="N84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P84">
         <v>4</v>
       </c>
       <c r="R84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y84">
         <v>4</v>
       </c>
       <c r="AA84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC84">
+        <v>8</v>
+      </c>
+      <c r="AE84">
+        <v>3</v>
+      </c>
+      <c r="AH84">
+        <v>4</v>
+      </c>
+      <c r="AM84">
+        <v>4</v>
+      </c>
+      <c r="AO84">
+        <v>2</v>
+      </c>
+      <c r="AQ84">
+        <v>3</v>
+      </c>
+      <c r="AU84">
+        <v>2</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
+        <v>4</v>
+      </c>
+      <c r="AY84">
+        <v>2</v>
+      </c>
+      <c r="BD84">
+        <v>4</v>
+      </c>
+      <c r="BF84">
+        <v>3</v>
+      </c>
+      <c r="BI84">
+        <v>5</v>
+      </c>
+      <c r="BJ84">
+        <v>4</v>
+      </c>
+      <c r="BK84">
+        <v>3</v>
+      </c>
+      <c r="BN84">
+        <v>4</v>
+      </c>
+      <c r="BO84">
+        <v>3</v>
+      </c>
+      <c r="BP84">
+        <v>3</v>
+      </c>
+      <c r="BS84">
         <v>9</v>
       </c>
-      <c r="AE84">
-        <v>3</v>
-      </c>
-      <c r="AH84">
-        <v>4</v>
-      </c>
-      <c r="AM84">
-        <v>4</v>
-      </c>
-      <c r="AO84">
-        <v>3</v>
-      </c>
-      <c r="AQ84">
-        <v>3</v>
-      </c>
-      <c r="AU84">
-        <v>2</v>
-      </c>
-      <c r="AV84">
-        <v>4</v>
-      </c>
-      <c r="AW84">
-        <v>5</v>
-      </c>
-      <c r="AY84">
-        <v>2</v>
-      </c>
-      <c r="BD84">
-        <v>4</v>
-      </c>
-      <c r="BF84">
-        <v>3</v>
-      </c>
-      <c r="BI84">
-        <v>6</v>
-      </c>
-      <c r="BJ84">
-        <v>4</v>
-      </c>
-      <c r="BK84">
-        <v>3</v>
-      </c>
-      <c r="BN84">
-        <v>4</v>
-      </c>
-      <c r="BO84">
-        <v>3</v>
-      </c>
-      <c r="BP84">
-        <v>3</v>
-      </c>
-      <c r="BS84">
-        <v>11</v>
-      </c>
       <c r="BW84">
         <v>4</v>
       </c>
       <c r="BX84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA84">
         <v>4</v>
       </c>
       <c r="CC84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE84">
         <v>3</v>
       </c>
       <c r="CF84">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="CG84">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="CJ84">
         <v>3</v>
       </c>
       <c r="CK84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CL84">
         <v>3</v>
       </c>
       <c r="CM84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CQ84">
         <v>4</v>
@@ -8503,98 +8437,98 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K85">
         <v>3</v>
       </c>
       <c r="N85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P85">
         <v>1</v>
       </c>
       <c r="R85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U85">
+        <v>7</v>
+      </c>
+      <c r="W85">
         <v>10</v>
       </c>
-      <c r="W85">
+      <c r="Y85">
+        <v>1</v>
+      </c>
+      <c r="Z85">
+        <v>2</v>
+      </c>
+      <c r="AA85">
+        <v>4</v>
+      </c>
+      <c r="AC85">
+        <v>6</v>
+      </c>
+      <c r="AG85">
+        <v>4</v>
+      </c>
+      <c r="AO85">
+        <v>5</v>
+      </c>
+      <c r="AT85">
+        <v>3</v>
+      </c>
+      <c r="AU85">
+        <v>1</v>
+      </c>
+      <c r="AV85">
+        <v>6</v>
+      </c>
+      <c r="AW85">
+        <v>7</v>
+      </c>
+      <c r="AX85">
+        <v>1</v>
+      </c>
+      <c r="BD85">
+        <v>1</v>
+      </c>
+      <c r="BG85">
+        <v>2</v>
+      </c>
+      <c r="BI85">
+        <v>8</v>
+      </c>
+      <c r="BM85">
+        <v>1</v>
+      </c>
+      <c r="BP85">
+        <v>2</v>
+      </c>
+      <c r="BS85">
         <v>12</v>
       </c>
-      <c r="Y85">
-        <v>1</v>
-      </c>
-      <c r="Z85">
-        <v>2</v>
-      </c>
-      <c r="AA85">
-        <v>5</v>
-      </c>
-      <c r="AC85">
-        <v>7</v>
-      </c>
-      <c r="AG85">
-        <v>4</v>
-      </c>
-      <c r="AO85">
-        <v>8</v>
-      </c>
-      <c r="AT85">
-        <v>3</v>
-      </c>
-      <c r="AU85">
-        <v>1</v>
-      </c>
-      <c r="AV85">
-        <v>7</v>
-      </c>
-      <c r="AW85">
-        <v>8</v>
-      </c>
-      <c r="AX85">
-        <v>1</v>
-      </c>
-      <c r="BD85">
-        <v>1</v>
-      </c>
-      <c r="BG85">
-        <v>2</v>
-      </c>
-      <c r="BI85">
-        <v>11</v>
-      </c>
-      <c r="BM85">
-        <v>1</v>
-      </c>
-      <c r="BP85">
-        <v>2</v>
-      </c>
-      <c r="BS85">
+      <c r="BU85">
+        <v>1</v>
+      </c>
+      <c r="BX85">
+        <v>4</v>
+      </c>
+      <c r="BZ85">
+        <v>2</v>
+      </c>
+      <c r="CA85">
+        <v>7</v>
+      </c>
+      <c r="CC85">
+        <v>4</v>
+      </c>
+      <c r="CF85">
+        <v>9</v>
+      </c>
+      <c r="CG85">
         <v>16</v>
       </c>
-      <c r="BU85">
-        <v>1</v>
-      </c>
-      <c r="BX85">
-        <v>5</v>
-      </c>
-      <c r="BZ85">
-        <v>2</v>
-      </c>
-      <c r="CA85">
-        <v>8</v>
-      </c>
-      <c r="CC85">
-        <v>5</v>
-      </c>
-      <c r="CF85">
-        <v>11</v>
-      </c>
-      <c r="CG85">
-        <v>20</v>
-      </c>
       <c r="CH85">
         <v>1</v>
       </c>
@@ -8602,10 +8536,10 @@
         <v>1</v>
       </c>
       <c r="CK85">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="CM85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CN85">
         <v>1</v>
@@ -8614,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="CQ85">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:95" x14ac:dyDescent="0.25">
@@ -8880,67 +8814,67 @@
         <v>88</v>
       </c>
       <c r="G89">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K89">
         <v>1</v>
       </c>
       <c r="U89">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="W89">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z89">
         <v>1</v>
       </c>
       <c r="AC89">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG89">
         <v>1</v>
       </c>
       <c r="AO89">
+        <v>5</v>
+      </c>
+      <c r="AT89">
+        <v>1</v>
+      </c>
+      <c r="AV89">
+        <v>6</v>
+      </c>
+      <c r="AW89">
+        <v>1</v>
+      </c>
+      <c r="BG89">
+        <v>1</v>
+      </c>
+      <c r="BI89">
+        <v>8</v>
+      </c>
+      <c r="BS89">
+        <v>8</v>
+      </c>
+      <c r="BZ89">
+        <v>1</v>
+      </c>
+      <c r="CA89">
+        <v>7</v>
+      </c>
+      <c r="CF89">
+        <v>5</v>
+      </c>
+      <c r="CG89">
         <v>9</v>
       </c>
-      <c r="AT89">
-        <v>1</v>
-      </c>
-      <c r="AV89">
-        <v>8</v>
-      </c>
-      <c r="AW89">
-        <v>1</v>
-      </c>
-      <c r="BG89">
-        <v>1</v>
-      </c>
-      <c r="BI89">
-        <v>11</v>
-      </c>
-      <c r="BS89">
-        <v>12</v>
-      </c>
-      <c r="BZ89">
-        <v>1</v>
-      </c>
-      <c r="CA89">
+      <c r="CH89">
+        <v>1</v>
+      </c>
+      <c r="CK89">
         <v>9</v>
       </c>
-      <c r="CF89">
-        <v>6</v>
-      </c>
-      <c r="CG89">
-        <v>12</v>
-      </c>
-      <c r="CH89">
-        <v>1</v>
-      </c>
-      <c r="CK89">
-        <v>13</v>
-      </c>
       <c r="CQ89">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:95" x14ac:dyDescent="0.25">
@@ -8948,13 +8882,13 @@
         <v>89</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>4</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L90">
         <v>6</v>
@@ -8966,13 +8900,13 @@
         <v>3</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y90">
         <v>6</v>
@@ -8987,13 +8921,13 @@
         <v>6</v>
       </c>
       <c r="AK90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM90">
         <v>3</v>
       </c>
       <c r="AP90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>6</v>
@@ -9002,7 +8936,7 @@
         <v>5</v>
       </c>
       <c r="AW90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY90">
         <v>5</v>
@@ -9029,13 +8963,13 @@
         <v>4</v>
       </c>
       <c r="BR90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BT90">
         <v>1</v>
       </c>
       <c r="BW90">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CE90">
         <v>5</v>
@@ -9047,7 +8981,7 @@
         <v>5</v>
       </c>
       <c r="CL90">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:95" x14ac:dyDescent="0.25">
@@ -9061,16 +8995,16 @@
         <v>1</v>
       </c>
       <c r="N91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T91">
         <v>1</v>
       </c>
       <c r="AA91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD91">
         <v>1</v>
@@ -9097,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="AW91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ91">
         <v>1</v>
@@ -9115,31 +9049,31 @@
         <v>2</v>
       </c>
       <c r="BS91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BV91">
         <v>2</v>
       </c>
       <c r="BX91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD91">
         <v>1</v>
       </c>
       <c r="CF91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH91">
         <v>2</v>
       </c>
       <c r="CM91">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CP91">
         <v>2</v>
@@ -9156,64 +9090,64 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P92">
         <v>1</v>
       </c>
       <c r="R92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U92">
         <v>3</v>
       </c>
       <c r="X92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y92">
         <v>1</v>
       </c>
       <c r="AD92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG92">
         <v>1</v>
       </c>
       <c r="AH92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI92">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX92">
         <v>1</v>
       </c>
       <c r="BD92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BE92">
         <v>2</v>
@@ -9222,19 +9156,19 @@
         <v>1</v>
       </c>
       <c r="BQ92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BU92">
         <v>1</v>
       </c>
       <c r="CC92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CG92">
         <v>1</v>
       </c>
       <c r="CN92">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CO92">
         <v>1</v>
@@ -9429,7 +9363,7 @@
         <v>94</v>
       </c>
       <c r="G95">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J95">
         <v>2</v>
@@ -9441,25 +9375,25 @@
         <v>2</v>
       </c>
       <c r="U95">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W95">
+        <v>7</v>
+      </c>
+      <c r="AC95">
+        <v>5</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AK95">
+        <v>2</v>
+      </c>
+      <c r="AO95">
         <v>9</v>
       </c>
-      <c r="AC95">
-        <v>5</v>
-      </c>
-      <c r="AD95">
-        <v>1</v>
-      </c>
-      <c r="AK95">
-        <v>2</v>
-      </c>
-      <c r="AO95">
-        <v>12</v>
-      </c>
       <c r="AV95">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX95">
         <v>1</v>
@@ -9471,58 +9405,58 @@
         <v>2</v>
       </c>
       <c r="BI95">
+        <v>9</v>
+      </c>
+      <c r="BM95">
+        <v>2</v>
+      </c>
+      <c r="BS95">
+        <v>7</v>
+      </c>
+      <c r="BU95">
+        <v>2</v>
+      </c>
+      <c r="BV95">
+        <v>2</v>
+      </c>
+      <c r="BY95">
+        <v>2</v>
+      </c>
+      <c r="BZ95">
+        <v>2</v>
+      </c>
+      <c r="CA95">
+        <v>5</v>
+      </c>
+      <c r="CB95">
+        <v>1</v>
+      </c>
+      <c r="CD95">
+        <v>1</v>
+      </c>
+      <c r="CF95">
+        <v>4</v>
+      </c>
+      <c r="CG95">
+        <v>7</v>
+      </c>
+      <c r="CH95">
+        <v>4</v>
+      </c>
+      <c r="CK95">
+        <v>7</v>
+      </c>
+      <c r="CM95">
+        <v>2</v>
+      </c>
+      <c r="CO95">
+        <v>2</v>
+      </c>
+      <c r="CP95">
+        <v>3</v>
+      </c>
+      <c r="CQ95">
         <v>11</v>
-      </c>
-      <c r="BM95">
-        <v>2</v>
-      </c>
-      <c r="BS95">
-        <v>10</v>
-      </c>
-      <c r="BU95">
-        <v>2</v>
-      </c>
-      <c r="BV95">
-        <v>2</v>
-      </c>
-      <c r="BY95">
-        <v>2</v>
-      </c>
-      <c r="BZ95">
-        <v>2</v>
-      </c>
-      <c r="CA95">
-        <v>7</v>
-      </c>
-      <c r="CB95">
-        <v>1</v>
-      </c>
-      <c r="CD95">
-        <v>1</v>
-      </c>
-      <c r="CF95">
-        <v>4</v>
-      </c>
-      <c r="CG95">
-        <v>9</v>
-      </c>
-      <c r="CH95">
-        <v>4</v>
-      </c>
-      <c r="CK95">
-        <v>10</v>
-      </c>
-      <c r="CM95">
-        <v>2</v>
-      </c>
-      <c r="CO95">
-        <v>2</v>
-      </c>
-      <c r="CP95">
-        <v>3</v>
-      </c>
-      <c r="CQ95">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
